--- a/excel/finished/焦化12/CK12-化产-制冷循环水报表（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-制冷循环水报表（日）.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hemao\AppData\Local\Temp\Rar$DIa0.723\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46F92BD8-835E-4DE5-A824-6C8FDB9CE43E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{887B6FAF-527E-4A66-85A9-1CE1EB6C60E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -338,52 +338,7 @@
     <t>低温水温度 ℃</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>1#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机组</t>
-    </r>
-  </si>
-  <si>
     <t>2#机组</t>
-  </si>
-  <si>
-    <t>3#机组</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-        <family val="1"/>
-      </rPr>
-      <t>4#</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>机组</t>
-    </r>
   </si>
   <si>
     <t>压力 MPa</t>
@@ -777,6 +732,54 @@
   </si>
   <si>
     <t>CK12_L1R_CC_S7Program2_4ZLJZ_R_1m_avg</t>
+  </si>
+  <si>
+    <r>
+      <t>3#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机组</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机组</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>4#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>机组</t>
+    </r>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1424,87 +1427,6 @@
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1557,7 +1479,34 @@
     <xf numFmtId="2" fontId="9" fillId="0" borderId="28" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1572,15 +1521,69 @@
     <xf numFmtId="1" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="12" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="17" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="16" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="13" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
   </cellStyles>
-  <dxfs count="88">
+  <dxfs count="176">
     <dxf>
       <fill>
         <patternFill patternType="darkDown"/>
@@ -1599,6 +1602,458 @@
     <dxf>
       <fill>
         <patternFill patternType="darkDown"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color indexed="2"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+      </font>
+      <fill>
+        <patternFill patternType="solid"/>
       </fill>
     </dxf>
     <dxf>
@@ -2246,8 +2701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AT37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="V1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AP16" sqref="AP16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -2264,49 +2719,49 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:46" ht="22.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="41" t="s">
+      <c r="A1" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
+      <c r="B1" s="89"/>
+      <c r="C1" s="89"/>
+      <c r="D1" s="89"/>
+      <c r="E1" s="89"/>
+      <c r="F1" s="89"/>
+      <c r="G1" s="89"/>
+      <c r="H1" s="89"/>
+      <c r="I1" s="89"/>
+      <c r="J1" s="89"/>
+      <c r="K1" s="89"/>
+      <c r="L1" s="89"/>
+      <c r="M1" s="89"/>
+      <c r="N1" s="89"/>
+      <c r="O1" s="89"/>
+      <c r="P1" s="89"/>
+      <c r="Q1" s="89"/>
+      <c r="R1" s="89"/>
+      <c r="S1" s="89"/>
+      <c r="T1" s="89"/>
+      <c r="U1" s="89"/>
+      <c r="V1" s="89"/>
+      <c r="W1" s="89"/>
+      <c r="X1" s="89"/>
+      <c r="Y1" s="89"/>
+      <c r="Z1" s="89"/>
+      <c r="AA1" s="89"/>
+      <c r="AB1" s="89"/>
     </row>
     <row r="2" spans="1:46" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="8"/>
-      <c r="C2" s="42" t="str">
+      <c r="C2" s="90" t="str">
         <f>IF(_metadata!B2="","",_metadata!B2)</f>
         <v/>
       </c>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
       <c r="G2" s="8"/>
       <c r="H2" s="8"/>
       <c r="I2" s="8"/>
@@ -2321,19 +2776,19 @@
       <c r="R2" s="8"/>
       <c r="S2" s="8"/>
       <c r="T2" s="8"/>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="90" t="s">
         <v>2</v>
       </c>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42"/>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
+      <c r="V2" s="90"/>
+      <c r="W2" s="90"/>
+      <c r="X2" s="90"/>
+      <c r="Y2" s="90"/>
       <c r="Z2" s="8"/>
       <c r="AA2" s="8"/>
       <c r="AB2" s="8"/>
     </row>
     <row r="3" spans="1:46" ht="18" x14ac:dyDescent="0.3">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="92" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="66" t="s">
@@ -2341,466 +2796,466 @@
       </c>
       <c r="C3" s="66"/>
       <c r="D3" s="66"/>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="91" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="43"/>
-      <c r="I3" s="43"/>
-      <c r="J3" s="43"/>
-      <c r="K3" s="43"/>
-      <c r="L3" s="43"/>
-      <c r="M3" s="43"/>
-      <c r="N3" s="43"/>
-      <c r="O3" s="43" t="s">
+      <c r="F3" s="91"/>
+      <c r="G3" s="91"/>
+      <c r="H3" s="91"/>
+      <c r="I3" s="91"/>
+      <c r="J3" s="91"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="91"/>
+      <c r="M3" s="91"/>
+      <c r="N3" s="91"/>
+      <c r="O3" s="91" t="s">
         <v>6</v>
       </c>
-      <c r="P3" s="43"/>
-      <c r="Q3" s="43"/>
-      <c r="R3" s="43"/>
-      <c r="S3" s="43"/>
-      <c r="T3" s="43"/>
-      <c r="U3" s="43"/>
-      <c r="V3" s="43"/>
-      <c r="W3" s="43" t="s">
+      <c r="P3" s="91"/>
+      <c r="Q3" s="91"/>
+      <c r="R3" s="91"/>
+      <c r="S3" s="91"/>
+      <c r="T3" s="91"/>
+      <c r="U3" s="91"/>
+      <c r="V3" s="91"/>
+      <c r="W3" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="X3" s="43"/>
-      <c r="Y3" s="43"/>
-      <c r="Z3" s="43"/>
-      <c r="AA3" s="43"/>
-      <c r="AB3" s="43"/>
-      <c r="AC3" s="43"/>
-      <c r="AD3" s="43"/>
-      <c r="AE3" s="43"/>
-      <c r="AF3" s="43"/>
-      <c r="AG3" s="63" t="s">
+      <c r="X3" s="91"/>
+      <c r="Y3" s="91"/>
+      <c r="Z3" s="91"/>
+      <c r="AA3" s="91"/>
+      <c r="AB3" s="91"/>
+      <c r="AC3" s="91"/>
+      <c r="AD3" s="91"/>
+      <c r="AE3" s="91"/>
+      <c r="AF3" s="91"/>
+      <c r="AG3" s="62" t="s">
         <v>8</v>
       </c>
       <c r="AH3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="AI3" s="44" t="s">
+      <c r="AI3" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="AJ3" s="44"/>
-      <c r="AK3" s="44"/>
-      <c r="AL3" s="45"/>
-      <c r="AM3" s="45"/>
-      <c r="AN3" s="44"/>
-      <c r="AO3" s="45"/>
-      <c r="AP3" s="45"/>
-      <c r="AQ3" s="44"/>
-      <c r="AR3" s="45"/>
-      <c r="AS3" s="45"/>
-      <c r="AT3" s="46"/>
+      <c r="AJ3" s="83"/>
+      <c r="AK3" s="83"/>
+      <c r="AL3" s="84"/>
+      <c r="AM3" s="84"/>
+      <c r="AN3" s="83"/>
+      <c r="AO3" s="84"/>
+      <c r="AP3" s="84"/>
+      <c r="AQ3" s="83"/>
+      <c r="AR3" s="84"/>
+      <c r="AS3" s="84"/>
+      <c r="AT3" s="85"/>
     </row>
     <row r="4" spans="1:46" ht="15.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="61"/>
+      <c r="A4" s="93"/>
       <c r="B4" s="67"/>
       <c r="C4" s="67"/>
       <c r="D4" s="67"/>
-      <c r="E4" s="47" t="s">
+      <c r="E4" s="63" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48" t="s">
+      <c r="F4" s="70"/>
+      <c r="G4" s="70" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="48" t="s">
+      <c r="H4" s="70" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="48" t="s">
+      <c r="I4" s="70" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="47" t="s">
+      <c r="J4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="K4" s="47" t="s">
+      <c r="K4" s="63" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="47" t="s">
+      <c r="L4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="M4" s="47" t="s">
+      <c r="M4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="N4" s="47" t="s">
+      <c r="N4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="O4" s="47" t="s">
+      <c r="O4" s="63" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="48"/>
-      <c r="Q4" s="48" t="s">
+      <c r="P4" s="70"/>
+      <c r="Q4" s="70" t="s">
         <v>21</v>
       </c>
-      <c r="R4" s="47" t="s">
+      <c r="R4" s="63" t="s">
         <v>17</v>
       </c>
-      <c r="S4" s="47" t="s">
+      <c r="S4" s="63" t="s">
         <v>18</v>
       </c>
-      <c r="T4" s="47" t="s">
+      <c r="T4" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="U4" s="47" t="s">
+      <c r="U4" s="63" t="s">
         <v>15</v>
       </c>
-      <c r="V4" s="47" t="s">
+      <c r="V4" s="63" t="s">
         <v>22</v>
       </c>
-      <c r="W4" s="48" t="s">
+      <c r="W4" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="X4" s="48"/>
-      <c r="Y4" s="47" t="s">
+      <c r="X4" s="70"/>
+      <c r="Y4" s="63" t="s">
         <v>24</v>
       </c>
-      <c r="Z4" s="47" t="s">
+      <c r="Z4" s="63" t="s">
         <v>25</v>
       </c>
-      <c r="AA4" s="47" t="s">
+      <c r="AA4" s="63" t="s">
         <v>26</v>
       </c>
-      <c r="AB4" s="47" t="s">
+      <c r="AB4" s="63" t="s">
         <v>27</v>
       </c>
-      <c r="AC4" s="47" t="s">
+      <c r="AC4" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="AD4" s="47"/>
-      <c r="AE4" s="47" t="s">
+      <c r="AD4" s="63"/>
+      <c r="AE4" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="AF4" s="47"/>
-      <c r="AG4" s="47"/>
+      <c r="AF4" s="63"/>
+      <c r="AG4" s="63"/>
       <c r="AH4" s="65"/>
-      <c r="AI4" s="49" t="s">
+      <c r="AI4" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ4" s="86"/>
+      <c r="AK4" s="86"/>
+      <c r="AL4" s="87" t="s">
         <v>30</v>
       </c>
-      <c r="AJ4" s="49"/>
-      <c r="AK4" s="49"/>
-      <c r="AL4" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="AM4" s="50"/>
-      <c r="AN4" s="49"/>
-      <c r="AO4" s="50" t="s">
-        <v>32</v>
-      </c>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="49"/>
-      <c r="AR4" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="AS4" s="50"/>
-      <c r="AT4" s="51"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="86"/>
+      <c r="AO4" s="87" t="s">
+        <v>153</v>
+      </c>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="87" t="s">
+        <v>155</v>
+      </c>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="88"/>
     </row>
     <row r="5" spans="1:46" ht="30" x14ac:dyDescent="0.3">
-      <c r="A5" s="61"/>
+      <c r="A5" s="93"/>
       <c r="B5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="G5" s="63"/>
+      <c r="H5" s="63"/>
+      <c r="I5" s="63"/>
+      <c r="J5" s="63"/>
+      <c r="K5" s="63"/>
+      <c r="L5" s="63"/>
+      <c r="M5" s="63"/>
+      <c r="N5" s="63"/>
+      <c r="O5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="P5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q5" s="63"/>
+      <c r="R5" s="63"/>
+      <c r="S5" s="70"/>
+      <c r="T5" s="63"/>
+      <c r="U5" s="63"/>
+      <c r="V5" s="63"/>
+      <c r="W5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="X5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="63"/>
+      <c r="Z5" s="63"/>
+      <c r="AA5" s="63"/>
+      <c r="AB5" s="63"/>
+      <c r="AC5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="AD5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="AE5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="AF5" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="F5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
-      <c r="J5" s="47"/>
-      <c r="K5" s="47"/>
-      <c r="L5" s="47"/>
-      <c r="M5" s="47"/>
-      <c r="N5" s="47"/>
-      <c r="O5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q5" s="47"/>
-      <c r="R5" s="47"/>
-      <c r="S5" s="48"/>
-      <c r="T5" s="47"/>
-      <c r="U5" s="47"/>
-      <c r="V5" s="47"/>
-      <c r="W5" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="X5" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y5" s="47"/>
-      <c r="Z5" s="47"/>
-      <c r="AA5" s="47"/>
-      <c r="AB5" s="47"/>
-      <c r="AC5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AD5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AE5" s="9" t="s">
-        <v>38</v>
-      </c>
-      <c r="AF5" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="AG5" s="47"/>
+      <c r="AG5" s="63"/>
       <c r="AH5" s="65"/>
       <c r="AI5" s="25" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AJ5" s="25" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AK5" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AL5" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AM5" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AN5" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AO5" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AP5" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AQ5" s="25" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="AR5" s="26" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="AS5" s="26" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="AT5" s="38" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.3">
-      <c r="A6" s="61"/>
+      <c r="A6" s="93"/>
       <c r="B6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="H6" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="I6" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="J6" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="K6" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="L6" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="M6" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="N6" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="O6" s="10" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="P6" s="10" t="s">
         <v>54</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="Q6" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="O6" s="10" t="s">
+      <c r="R6" s="10" t="s">
         <v>56</v>
       </c>
-      <c r="P6" s="10" t="s">
+      <c r="S6" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="Q6" s="10" t="s">
+      <c r="T6" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="R6" s="10" t="s">
+      <c r="U6" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="S6" s="10" t="s">
+      <c r="V6" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="T6" s="10" t="s">
+      <c r="W6" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="U6" s="10" t="s">
+      <c r="X6" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="V6" s="10" t="s">
+      <c r="Y6" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="W6" s="10" t="s">
+      <c r="Z6" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="X6" s="10" t="s">
+      <c r="AA6" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="Y6" s="10" t="s">
+      <c r="AB6" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="Z6" s="10" t="s">
+      <c r="AC6" s="23" t="s">
         <v>67</v>
       </c>
-      <c r="AA6" s="10" t="s">
+      <c r="AD6" s="23" t="s">
         <v>68</v>
       </c>
-      <c r="AB6" s="10" t="s">
+      <c r="AE6" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="AC6" s="23" t="s">
+      <c r="AF6" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="AD6" s="23" t="s">
+      <c r="AG6" s="27" t="s">
         <v>71</v>
-      </c>
-      <c r="AE6" s="23" t="s">
-        <v>72</v>
-      </c>
-      <c r="AF6" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AG6" s="27" t="s">
-        <v>74</v>
       </c>
       <c r="AH6" s="28"/>
       <c r="AI6" s="23" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="AJ6" s="29"/>
       <c r="AK6" s="29"/>
       <c r="AL6" s="30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AM6" s="31"/>
       <c r="AN6" s="29"/>
       <c r="AO6" s="30" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AP6" s="31"/>
       <c r="AQ6" s="29"/>
       <c r="AR6" s="30" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AS6" s="31"/>
       <c r="AT6" s="39"/>
     </row>
     <row r="7" spans="1:46" ht="14.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D7" s="13" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="H7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="K7" s="12" t="s">
+        <v>81</v>
+      </c>
+      <c r="L7" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="H7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="I7" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="J7" s="12" t="s">
+      <c r="M7" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="K7" s="12" t="s">
+      <c r="N7" s="12" t="s">
         <v>84</v>
-      </c>
-      <c r="L7" s="12" t="s">
-        <v>85</v>
-      </c>
-      <c r="M7" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="12" t="s">
-        <v>87</v>
       </c>
       <c r="O7" s="13"/>
       <c r="P7" s="13"/>
       <c r="Q7" s="12" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="R7" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="S7" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="T7" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="S7" s="12" t="s">
+      <c r="V7" s="12" t="s">
         <v>89</v>
-      </c>
-      <c r="T7" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="U7" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="V7" s="12" t="s">
-        <v>92</v>
       </c>
       <c r="W7" s="13"/>
       <c r="X7" s="13"/>
       <c r="Y7" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z7" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="AA7" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="AB7" s="12" t="s">
         <v>93</v>
-      </c>
-      <c r="Z7" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="AA7" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AB7" s="12" t="s">
-        <v>96</v>
       </c>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="AE7" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AF7" s="12" t="s">
+        <v>96</v>
+      </c>
+      <c r="AG7" s="12" t="s">
         <v>97</v>
-      </c>
-      <c r="AE7" s="12" t="s">
-        <v>98</v>
-      </c>
-      <c r="AF7" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="AG7" s="12" t="s">
-        <v>100</v>
       </c>
       <c r="AH7" s="32"/>
       <c r="AI7" s="33"/>
@@ -3057,322 +3512,322 @@
       <c r="AT9" s="36"/>
     </row>
     <row r="10" spans="1:46" ht="15.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="69"/>
-      <c r="B10" s="70" t="s">
+      <c r="A10" s="42"/>
+      <c r="B10" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C10" s="43" t="s">
+        <v>99</v>
+      </c>
+      <c r="D10" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="E10" s="43" t="s">
         <v>101</v>
       </c>
-      <c r="C10" s="70" t="s">
+      <c r="F10" s="43" t="s">
         <v>102</v>
       </c>
-      <c r="D10" s="70" t="s">
+      <c r="G10" s="43" t="s">
         <v>103</v>
       </c>
-      <c r="E10" s="70" t="s">
+      <c r="H10" s="43" t="s">
         <v>104</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="I10" s="43" t="s">
         <v>105</v>
       </c>
-      <c r="G10" s="70" t="s">
+      <c r="J10" s="43" t="s">
         <v>106</v>
       </c>
-      <c r="H10" s="70" t="s">
+      <c r="K10" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="I10" s="70" t="s">
+      <c r="L10" s="43" t="s">
         <v>108</v>
       </c>
-      <c r="J10" s="70" t="s">
+      <c r="M10" s="43" t="s">
         <v>109</v>
       </c>
-      <c r="K10" s="70" t="s">
+      <c r="N10" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="L10" s="70" t="s">
+      <c r="O10" s="43" t="s">
         <v>111</v>
       </c>
-      <c r="M10" s="70" t="s">
+      <c r="P10" s="43" t="s">
         <v>112</v>
       </c>
-      <c r="N10" s="70" t="s">
+      <c r="Q10" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="O10" s="70" t="s">
+      <c r="R10" s="43" t="s">
         <v>114</v>
       </c>
-      <c r="P10" s="70" t="s">
+      <c r="S10" s="43" t="s">
         <v>115</v>
       </c>
-      <c r="Q10" s="70" t="s">
+      <c r="T10" s="43" t="s">
         <v>116</v>
       </c>
-      <c r="R10" s="70" t="s">
+      <c r="U10" s="43" t="s">
         <v>117</v>
       </c>
-      <c r="S10" s="70" t="s">
+      <c r="V10" s="43" t="s">
         <v>118</v>
       </c>
-      <c r="T10" s="70" t="s">
+      <c r="W10" s="43" t="s">
         <v>119</v>
       </c>
-      <c r="U10" s="70" t="s">
+      <c r="X10" s="43" t="s">
         <v>120</v>
       </c>
-      <c r="V10" s="70" t="s">
+      <c r="Y10" s="43" t="s">
         <v>121</v>
       </c>
-      <c r="W10" s="70" t="s">
+      <c r="Z10" s="43" t="s">
         <v>122</v>
       </c>
-      <c r="X10" s="70" t="s">
+      <c r="AA10" s="43" t="s">
         <v>123</v>
       </c>
-      <c r="Y10" s="70" t="s">
+      <c r="AB10" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="Z10" s="70" t="s">
+      <c r="AC10" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="AA10" s="70" t="s">
+      <c r="AD10" s="43" t="s">
         <v>126</v>
       </c>
-      <c r="AB10" s="70" t="s">
+      <c r="AE10" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="AC10" s="70" t="s">
+      <c r="AF10" s="43" t="s">
         <v>128</v>
       </c>
-      <c r="AD10" s="70" t="s">
+      <c r="AG10" s="43" t="s">
         <v>129</v>
       </c>
-      <c r="AE10" s="70" t="s">
+      <c r="AH10" s="44" t="s">
         <v>130</v>
       </c>
-      <c r="AF10" s="70" t="s">
+      <c r="AI10" s="45" t="s">
         <v>131</v>
       </c>
-      <c r="AG10" s="70" t="s">
+      <c r="AJ10" s="45" t="s">
         <v>132</v>
       </c>
-      <c r="AH10" s="71" t="s">
+      <c r="AK10" s="45"/>
+      <c r="AL10" s="46" t="s">
         <v>133</v>
       </c>
-      <c r="AI10" s="72" t="s">
+      <c r="AM10" s="46" t="s">
         <v>134</v>
       </c>
-      <c r="AJ10" s="72" t="s">
+      <c r="AN10" s="45"/>
+      <c r="AO10" s="46" t="s">
         <v>135</v>
       </c>
-      <c r="AK10" s="72"/>
-      <c r="AL10" s="73" t="s">
+      <c r="AP10" s="46" t="s">
         <v>136</v>
       </c>
-      <c r="AM10" s="73" t="s">
+      <c r="AQ10" s="45"/>
+      <c r="AR10" s="46" t="s">
         <v>137</v>
       </c>
-      <c r="AN10" s="72"/>
-      <c r="AO10" s="73" t="s">
+      <c r="AS10" s="46" t="s">
         <v>138</v>
       </c>
-      <c r="AP10" s="73" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ10" s="72"/>
-      <c r="AR10" s="73" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS10" s="73" t="s">
-        <v>141</v>
-      </c>
-      <c r="AT10" s="72"/>
+      <c r="AT10" s="45"/>
     </row>
     <row r="11" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="74">
+      <c r="A11" s="47">
         <v>0</v>
       </c>
-      <c r="B11" s="75" t="str">
+      <c r="B11" s="48" t="str">
         <f>IF(_zhileng_day_hour!A2="","",_zhileng_day_hour!A2)</f>
         <v/>
       </c>
-      <c r="C11" s="76" t="str">
+      <c r="C11" s="49" t="str">
         <f>IF(_zhileng_day_hour!B2="","",_zhileng_day_hour!B2)</f>
         <v/>
       </c>
-      <c r="D11" s="76" t="str">
+      <c r="D11" s="49" t="str">
         <f>IF(_zhileng_day_hour!C2="","",_zhileng_day_hour!C2)</f>
         <v/>
       </c>
-      <c r="E11" s="77" t="str">
+      <c r="E11" s="50" t="str">
         <f>IF(_zhileng_day_hour!D2="","",_zhileng_day_hour!D2)</f>
         <v/>
       </c>
-      <c r="F11" s="77" t="str">
+      <c r="F11" s="50" t="str">
         <f>IF(_zhileng_day_hour!E2="","",_zhileng_day_hour!E2)</f>
         <v/>
       </c>
-      <c r="G11" s="77" t="str">
+      <c r="G11" s="50" t="str">
         <f>IF(_zhileng_day_hour!F2="","",_zhileng_day_hour!F2/1000)</f>
         <v/>
       </c>
-      <c r="H11" s="77" t="str">
+      <c r="H11" s="50" t="str">
         <f>IF(_zhileng_day_hour!G2="","",_zhileng_day_hour!G2/1000)</f>
         <v/>
       </c>
-      <c r="I11" s="77" t="str">
+      <c r="I11" s="50" t="str">
         <f>IF(_zhileng_day_hour!H2="","",_zhileng_day_hour!H2/1000)</f>
         <v/>
       </c>
-      <c r="J11" s="76" t="str">
+      <c r="J11" s="49" t="str">
         <f>IF(_zhileng_day_hour!I2="","",_zhileng_day_hour!I2)</f>
         <v/>
       </c>
-      <c r="K11" s="76" t="str">
+      <c r="K11" s="49" t="str">
         <f>IF(_zhileng_day_hour!J2="","",_zhileng_day_hour!J2)</f>
         <v/>
       </c>
-      <c r="L11" s="75" t="str">
+      <c r="L11" s="48" t="str">
         <f>IF(_zhileng_day_hour!K2="","",_zhileng_day_hour!K2)</f>
         <v/>
       </c>
-      <c r="M11" s="75" t="str">
+      <c r="M11" s="48" t="str">
         <f>IF(_zhileng_day_hour!L2="","",_zhileng_day_hour!L2)</f>
         <v/>
       </c>
-      <c r="N11" s="76" t="str">
+      <c r="N11" s="49" t="str">
         <f>IF(_zhileng_day_hour!M2="","",_zhileng_day_hour!M2)</f>
         <v/>
       </c>
-      <c r="O11" s="76" t="str">
+      <c r="O11" s="49" t="str">
         <f>IF(_zhileng_day_hour!N2="","",_zhileng_day_hour!N2)</f>
         <v/>
       </c>
-      <c r="P11" s="76" t="str">
+      <c r="P11" s="49" t="str">
         <f>IF(_zhileng_day_hour!O2="","",_zhileng_day_hour!O2)</f>
         <v/>
       </c>
-      <c r="Q11" s="75" t="str">
+      <c r="Q11" s="48" t="str">
         <f>IF(_zhileng_day_hour!P2="","",_zhileng_day_hour!P2/1000)</f>
         <v/>
       </c>
-      <c r="R11" s="76" t="str">
+      <c r="R11" s="49" t="str">
         <f>IF(_zhileng_day_hour!Q2="","",_zhileng_day_hour!Q2)</f>
         <v/>
       </c>
-      <c r="S11" s="75" t="str">
+      <c r="S11" s="48" t="str">
         <f>IF(_zhileng_day_hour!R2="","",_zhileng_day_hour!R2)</f>
         <v/>
       </c>
-      <c r="T11" s="76" t="str">
+      <c r="T11" s="49" t="str">
         <f>IF(_zhileng_day_hour!S2="","",_zhileng_day_hour!S2)</f>
         <v/>
       </c>
-      <c r="U11" s="76" t="str">
+      <c r="U11" s="49" t="str">
         <f>IF(_zhileng_day_hour!T2="","",_zhileng_day_hour!T2)</f>
         <v/>
       </c>
-      <c r="V11" s="75" t="str">
+      <c r="V11" s="48" t="str">
         <f>IF(_zhileng_day_hour!U2="","",_zhileng_day_hour!U2)</f>
         <v/>
       </c>
-      <c r="W11" s="76" t="str">
+      <c r="W11" s="49" t="str">
         <f>IF(_zhileng_day_hour!V2="","",_zhileng_day_hour!V2)</f>
         <v/>
       </c>
-      <c r="X11" s="76" t="str">
+      <c r="X11" s="49" t="str">
         <f>IF(_zhileng_day_hour!W2="","",_zhileng_day_hour!W2)</f>
         <v/>
       </c>
-      <c r="Y11" s="75" t="str">
+      <c r="Y11" s="48" t="str">
         <f>IF(_zhileng_day_hour!X2="","",_zhileng_day_hour!X2/1000)</f>
         <v/>
       </c>
-      <c r="Z11" s="75" t="str">
+      <c r="Z11" s="48" t="str">
         <f>IF(_zhileng_day_hour!Y2="","",_zhileng_day_hour!Y2)</f>
         <v/>
       </c>
-      <c r="AA11" s="75" t="str">
+      <c r="AA11" s="48" t="str">
         <f>IF(_zhileng_day_hour!Z2="","",_zhileng_day_hour!Z2)</f>
         <v/>
       </c>
-      <c r="AB11" s="76" t="str">
+      <c r="AB11" s="49" t="str">
         <f>IF(_zhileng_day_hour!AA2="","",_zhileng_day_hour!AA2)</f>
         <v/>
       </c>
-      <c r="AC11" s="75" t="str">
+      <c r="AC11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AB2="","",_zhileng_day_hour!AB2)</f>
         <v/>
       </c>
-      <c r="AD11" s="75" t="str">
+      <c r="AD11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AC2="","",_zhileng_day_hour!AC2)</f>
         <v/>
       </c>
-      <c r="AE11" s="75" t="str">
+      <c r="AE11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AD2="","",_zhileng_day_hour!AD2)</f>
         <v/>
       </c>
-      <c r="AF11" s="75" t="str">
+      <c r="AF11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AE2="","",_zhileng_day_hour!AE2)</f>
         <v/>
       </c>
-      <c r="AG11" s="75" t="str">
+      <c r="AG11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AF2="","",_zhileng_day_hour!AF2)</f>
         <v/>
       </c>
-      <c r="AH11" s="76" t="str">
+      <c r="AH11" s="49" t="str">
         <f>IF(_zhileng_day_hour!AG2="","",_zhileng_day_hour!AG2)</f>
         <v/>
       </c>
-      <c r="AI11" s="75" t="str">
+      <c r="AI11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AH2="","",_zhileng_day_hour!AH2)</f>
         <v/>
       </c>
-      <c r="AJ11" s="75" t="str">
+      <c r="AJ11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AI2="","",_zhileng_day_hour!AI2)</f>
         <v/>
       </c>
-      <c r="AK11" s="75" t="str">
+      <c r="AK11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AJ2="","",_zhileng_day_hour!AJ2)</f>
         <v/>
       </c>
-      <c r="AL11" s="76" t="str">
+      <c r="AL11" s="49" t="str">
         <f>IF(_zhileng_day_hour!AK2="","",_zhileng_day_hour!AK2)</f>
         <v/>
       </c>
-      <c r="AM11" s="76" t="str">
+      <c r="AM11" s="49" t="str">
         <f>IF(_zhileng_day_hour!AL2="","",_zhileng_day_hour!AL2)</f>
         <v/>
       </c>
-      <c r="AN11" s="75" t="str">
+      <c r="AN11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AM2="","",_zhileng_day_hour!AM2)</f>
         <v/>
       </c>
-      <c r="AO11" s="76" t="str">
+      <c r="AO11" s="49" t="str">
         <f>IF(_zhileng_day_hour!AN2="","",_zhileng_day_hour!AN2)</f>
         <v/>
       </c>
-      <c r="AP11" s="76" t="str">
+      <c r="AP11" s="49" t="str">
         <f>IF(_zhileng_day_hour!AO2="","",_zhileng_day_hour!AO2)</f>
         <v/>
       </c>
-      <c r="AQ11" s="75" t="str">
+      <c r="AQ11" s="48" t="str">
         <f>IF(_zhileng_day_hour!AP2="","",_zhileng_day_hour!AP2)</f>
         <v/>
       </c>
-      <c r="AR11" s="76" t="str">
+      <c r="AR11" s="49" t="str">
         <f>IF(_zhileng_day_hour!AQ2="","",_zhileng_day_hour!AQ2)</f>
         <v/>
       </c>
-      <c r="AS11" s="76" t="str">
+      <c r="AS11" s="49" t="str">
         <f>IF(_zhileng_day_hour!AR2="","",_zhileng_day_hour!AR2)</f>
         <v/>
       </c>
-      <c r="AT11" s="78" t="str">
+      <c r="AT11" s="51" t="str">
         <f>IF(_zhileng_day_hour!AS2="","",_zhileng_day_hour!AS2)</f>
         <v/>
       </c>
     </row>
     <row r="12" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="79">
+      <c r="A12" s="52">
         <v>4.1666666666666699E-2</v>
       </c>
       <c r="B12" s="17" t="str">
@@ -3551,13 +4006,13 @@
         <f>IF(_zhileng_day_hour!AR3="","",_zhileng_day_hour!AR3)</f>
         <v/>
       </c>
-      <c r="AT12" s="80" t="str">
+      <c r="AT12" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS3="","",_zhileng_day_hour!AS3)</f>
         <v/>
       </c>
     </row>
     <row r="13" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="79">
+      <c r="A13" s="52">
         <v>8.3333333333333301E-2</v>
       </c>
       <c r="B13" s="17" t="str">
@@ -3736,13 +4191,13 @@
         <f>IF(_zhileng_day_hour!AR4="","",_zhileng_day_hour!AR4)</f>
         <v/>
       </c>
-      <c r="AT13" s="80" t="str">
+      <c r="AT13" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS4="","",_zhileng_day_hour!AS4)</f>
         <v/>
       </c>
     </row>
     <row r="14" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="81">
+      <c r="A14" s="54">
         <v>0.125</v>
       </c>
       <c r="B14" s="20" t="str">
@@ -3921,13 +4376,13 @@
         <f>IF(_zhileng_day_hour!AR5="","",_zhileng_day_hour!AR5)</f>
         <v/>
       </c>
-      <c r="AT14" s="82" t="str">
+      <c r="AT14" s="55" t="str">
         <f>IF(_zhileng_day_hour!AS5="","",_zhileng_day_hour!AS5)</f>
         <v/>
       </c>
     </row>
     <row r="15" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="81">
+      <c r="A15" s="54">
         <v>0.16666666666666699</v>
       </c>
       <c r="B15" s="20" t="str">
@@ -4106,13 +4561,13 @@
         <f>IF(_zhileng_day_hour!AR6="","",_zhileng_day_hour!AR6)</f>
         <v/>
       </c>
-      <c r="AT15" s="82" t="str">
+      <c r="AT15" s="55" t="str">
         <f>IF(_zhileng_day_hour!AS6="","",_zhileng_day_hour!AS6)</f>
         <v/>
       </c>
     </row>
     <row r="16" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="81">
+      <c r="A16" s="54">
         <v>0.20833333333333301</v>
       </c>
       <c r="B16" s="20" t="str">
@@ -4291,13 +4746,13 @@
         <f>IF(_zhileng_day_hour!AR7="","",_zhileng_day_hour!AR7)</f>
         <v/>
       </c>
-      <c r="AT16" s="82" t="str">
+      <c r="AT16" s="55" t="str">
         <f>IF(_zhileng_day_hour!AS7="","",_zhileng_day_hour!AS7)</f>
         <v/>
       </c>
     </row>
     <row r="17" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="81">
+      <c r="A17" s="54">
         <v>0.25</v>
       </c>
       <c r="B17" s="20" t="str">
@@ -4476,383 +4931,383 @@
         <f>IF(_zhileng_day_hour!AR8="","",_zhileng_day_hour!AR8)</f>
         <v/>
       </c>
-      <c r="AT17" s="82" t="str">
+      <c r="AT17" s="55" t="str">
         <f>IF(_zhileng_day_hour!AS8="","",_zhileng_day_hour!AS8)</f>
         <v/>
       </c>
     </row>
     <row r="18" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="83">
+      <c r="A18" s="56">
         <v>0.29166666666666702</v>
       </c>
-      <c r="B18" s="84" t="str">
+      <c r="B18" s="57" t="str">
         <f>IF(_zhileng_day_hour!A9="","",_zhileng_day_hour!A9)</f>
         <v/>
       </c>
-      <c r="C18" s="85" t="str">
+      <c r="C18" s="58" t="str">
         <f>IF(_zhileng_day_hour!B9="","",_zhileng_day_hour!B9)</f>
         <v/>
       </c>
-      <c r="D18" s="85" t="str">
+      <c r="D18" s="58" t="str">
         <f>IF(_zhileng_day_hour!C9="","",_zhileng_day_hour!C9)</f>
         <v/>
       </c>
-      <c r="E18" s="86" t="str">
+      <c r="E18" s="59" t="str">
         <f>IF(_zhileng_day_hour!D9="","",_zhileng_day_hour!D9)</f>
         <v/>
       </c>
-      <c r="F18" s="86" t="str">
+      <c r="F18" s="59" t="str">
         <f>IF(_zhileng_day_hour!E9="","",_zhileng_day_hour!E9)</f>
         <v/>
       </c>
-      <c r="G18" s="86" t="str">
+      <c r="G18" s="59" t="str">
         <f>IF(_zhileng_day_hour!F9="","",_zhileng_day_hour!F9/1000)</f>
         <v/>
       </c>
-      <c r="H18" s="86" t="str">
+      <c r="H18" s="59" t="str">
         <f>IF(_zhileng_day_hour!G9="","",_zhileng_day_hour!G9/1000)</f>
         <v/>
       </c>
-      <c r="I18" s="86" t="str">
+      <c r="I18" s="59" t="str">
         <f>IF(_zhileng_day_hour!H9="","",_zhileng_day_hour!H9/1000)</f>
         <v/>
       </c>
-      <c r="J18" s="85" t="str">
+      <c r="J18" s="58" t="str">
         <f>IF(_zhileng_day_hour!I9="","",_zhileng_day_hour!I9)</f>
         <v/>
       </c>
-      <c r="K18" s="85" t="str">
+      <c r="K18" s="58" t="str">
         <f>IF(_zhileng_day_hour!J9="","",_zhileng_day_hour!J9)</f>
         <v/>
       </c>
-      <c r="L18" s="84" t="str">
+      <c r="L18" s="57" t="str">
         <f>IF(_zhileng_day_hour!K9="","",_zhileng_day_hour!K9)</f>
         <v/>
       </c>
-      <c r="M18" s="84" t="str">
+      <c r="M18" s="57" t="str">
         <f>IF(_zhileng_day_hour!L9="","",_zhileng_day_hour!L9)</f>
         <v/>
       </c>
-      <c r="N18" s="85" t="str">
+      <c r="N18" s="58" t="str">
         <f>IF(_zhileng_day_hour!M9="","",_zhileng_day_hour!M9)</f>
         <v/>
       </c>
-      <c r="O18" s="85" t="str">
+      <c r="O18" s="58" t="str">
         <f>IF(_zhileng_day_hour!N9="","",_zhileng_day_hour!N9)</f>
         <v/>
       </c>
-      <c r="P18" s="85" t="str">
+      <c r="P18" s="58" t="str">
         <f>IF(_zhileng_day_hour!O9="","",_zhileng_day_hour!O9)</f>
         <v/>
       </c>
-      <c r="Q18" s="84" t="str">
+      <c r="Q18" s="57" t="str">
         <f>IF(_zhileng_day_hour!P9="","",_zhileng_day_hour!P9/1000)</f>
         <v/>
       </c>
-      <c r="R18" s="85" t="str">
+      <c r="R18" s="58" t="str">
         <f>IF(_zhileng_day_hour!Q9="","",_zhileng_day_hour!Q9)</f>
         <v/>
       </c>
-      <c r="S18" s="84" t="str">
+      <c r="S18" s="57" t="str">
         <f>IF(_zhileng_day_hour!R9="","",_zhileng_day_hour!R9)</f>
         <v/>
       </c>
-      <c r="T18" s="85" t="str">
+      <c r="T18" s="58" t="str">
         <f>IF(_zhileng_day_hour!S9="","",_zhileng_day_hour!S9)</f>
         <v/>
       </c>
-      <c r="U18" s="85" t="str">
+      <c r="U18" s="58" t="str">
         <f>IF(_zhileng_day_hour!T9="","",_zhileng_day_hour!T9)</f>
         <v/>
       </c>
-      <c r="V18" s="84" t="str">
+      <c r="V18" s="57" t="str">
         <f>IF(_zhileng_day_hour!U9="","",_zhileng_day_hour!U9)</f>
         <v/>
       </c>
-      <c r="W18" s="85" t="str">
+      <c r="W18" s="58" t="str">
         <f>IF(_zhileng_day_hour!V9="","",_zhileng_day_hour!V9)</f>
         <v/>
       </c>
-      <c r="X18" s="85" t="str">
+      <c r="X18" s="58" t="str">
         <f>IF(_zhileng_day_hour!W9="","",_zhileng_day_hour!W9)</f>
         <v/>
       </c>
-      <c r="Y18" s="84" t="str">
+      <c r="Y18" s="57" t="str">
         <f>IF(_zhileng_day_hour!X9="","",_zhileng_day_hour!X9/1000)</f>
         <v/>
       </c>
-      <c r="Z18" s="84" t="str">
+      <c r="Z18" s="57" t="str">
         <f>IF(_zhileng_day_hour!Y9="","",_zhileng_day_hour!Y9)</f>
         <v/>
       </c>
-      <c r="AA18" s="84" t="str">
+      <c r="AA18" s="57" t="str">
         <f>IF(_zhileng_day_hour!Z9="","",_zhileng_day_hour!Z9)</f>
         <v/>
       </c>
-      <c r="AB18" s="85" t="str">
+      <c r="AB18" s="58" t="str">
         <f>IF(_zhileng_day_hour!AA9="","",_zhileng_day_hour!AA9)</f>
         <v/>
       </c>
-      <c r="AC18" s="84" t="str">
+      <c r="AC18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AB9="","",_zhileng_day_hour!AB9)</f>
         <v/>
       </c>
-      <c r="AD18" s="84" t="str">
+      <c r="AD18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AC9="","",_zhileng_day_hour!AC9)</f>
         <v/>
       </c>
-      <c r="AE18" s="84" t="str">
+      <c r="AE18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AD9="","",_zhileng_day_hour!AD9)</f>
         <v/>
       </c>
-      <c r="AF18" s="84" t="str">
+      <c r="AF18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AE9="","",_zhileng_day_hour!AE9)</f>
         <v/>
       </c>
-      <c r="AG18" s="84" t="str">
+      <c r="AG18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AF9="","",_zhileng_day_hour!AF9)</f>
         <v/>
       </c>
-      <c r="AH18" s="85" t="str">
+      <c r="AH18" s="58" t="str">
         <f>IF(_zhileng_day_hour!AG9="","",_zhileng_day_hour!AG9)</f>
         <v/>
       </c>
-      <c r="AI18" s="84" t="str">
+      <c r="AI18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AH9="","",_zhileng_day_hour!AH9)</f>
         <v/>
       </c>
-      <c r="AJ18" s="84" t="str">
+      <c r="AJ18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AI9="","",_zhileng_day_hour!AI9)</f>
         <v/>
       </c>
-      <c r="AK18" s="84" t="str">
+      <c r="AK18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AJ9="","",_zhileng_day_hour!AJ9)</f>
         <v/>
       </c>
-      <c r="AL18" s="85" t="str">
+      <c r="AL18" s="58" t="str">
         <f>IF(_zhileng_day_hour!AK9="","",_zhileng_day_hour!AK9)</f>
         <v/>
       </c>
-      <c r="AM18" s="85" t="str">
+      <c r="AM18" s="58" t="str">
         <f>IF(_zhileng_day_hour!AL9="","",_zhileng_day_hour!AL9)</f>
         <v/>
       </c>
-      <c r="AN18" s="84" t="str">
+      <c r="AN18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AM9="","",_zhileng_day_hour!AM9)</f>
         <v/>
       </c>
-      <c r="AO18" s="85" t="str">
+      <c r="AO18" s="58" t="str">
         <f>IF(_zhileng_day_hour!AN9="","",_zhileng_day_hour!AN9)</f>
         <v/>
       </c>
-      <c r="AP18" s="85" t="str">
+      <c r="AP18" s="58" t="str">
         <f>IF(_zhileng_day_hour!AO9="","",_zhileng_day_hour!AO9)</f>
         <v/>
       </c>
-      <c r="AQ18" s="84" t="str">
+      <c r="AQ18" s="57" t="str">
         <f>IF(_zhileng_day_hour!AP9="","",_zhileng_day_hour!AP9)</f>
         <v/>
       </c>
-      <c r="AR18" s="85" t="str">
+      <c r="AR18" s="58" t="str">
         <f>IF(_zhileng_day_hour!AQ9="","",_zhileng_day_hour!AQ9)</f>
         <v/>
       </c>
-      <c r="AS18" s="85" t="str">
+      <c r="AS18" s="58" t="str">
         <f>IF(_zhileng_day_hour!AR9="","",_zhileng_day_hour!AR9)</f>
         <v/>
       </c>
-      <c r="AT18" s="87" t="str">
+      <c r="AT18" s="60" t="str">
         <f>IF(_zhileng_day_hour!AS9="","",_zhileng_day_hour!AS9)</f>
         <v/>
       </c>
     </row>
     <row r="19" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="74">
+      <c r="A19" s="47">
         <v>0.33333333333333298</v>
       </c>
-      <c r="B19" s="75" t="str">
+      <c r="B19" s="48" t="str">
         <f>IF(_zhileng_day_hour!A10="","",_zhileng_day_hour!A10)</f>
         <v/>
       </c>
-      <c r="C19" s="76" t="str">
+      <c r="C19" s="49" t="str">
         <f>IF(_zhileng_day_hour!B10="","",_zhileng_day_hour!B10)</f>
         <v/>
       </c>
-      <c r="D19" s="76" t="str">
+      <c r="D19" s="49" t="str">
         <f>IF(_zhileng_day_hour!C10="","",_zhileng_day_hour!C10)</f>
         <v/>
       </c>
-      <c r="E19" s="77" t="str">
+      <c r="E19" s="50" t="str">
         <f>IF(_zhileng_day_hour!D10="","",_zhileng_day_hour!D10)</f>
         <v/>
       </c>
-      <c r="F19" s="77" t="str">
+      <c r="F19" s="50" t="str">
         <f>IF(_zhileng_day_hour!E10="","",_zhileng_day_hour!E10)</f>
         <v/>
       </c>
-      <c r="G19" s="77" t="str">
+      <c r="G19" s="50" t="str">
         <f>IF(_zhileng_day_hour!F10="","",_zhileng_day_hour!F10/1000)</f>
         <v/>
       </c>
-      <c r="H19" s="77" t="str">
+      <c r="H19" s="50" t="str">
         <f>IF(_zhileng_day_hour!G10="","",_zhileng_day_hour!G10/1000)</f>
         <v/>
       </c>
-      <c r="I19" s="77" t="str">
+      <c r="I19" s="50" t="str">
         <f>IF(_zhileng_day_hour!H10="","",_zhileng_day_hour!H10/1000)</f>
         <v/>
       </c>
-      <c r="J19" s="76" t="str">
+      <c r="J19" s="49" t="str">
         <f>IF(_zhileng_day_hour!I10="","",_zhileng_day_hour!I10)</f>
         <v/>
       </c>
-      <c r="K19" s="76" t="str">
+      <c r="K19" s="49" t="str">
         <f>IF(_zhileng_day_hour!J10="","",_zhileng_day_hour!J10)</f>
         <v/>
       </c>
-      <c r="L19" s="75" t="str">
+      <c r="L19" s="48" t="str">
         <f>IF(_zhileng_day_hour!K10="","",_zhileng_day_hour!K10)</f>
         <v/>
       </c>
-      <c r="M19" s="75" t="str">
+      <c r="M19" s="48" t="str">
         <f>IF(_zhileng_day_hour!L10="","",_zhileng_day_hour!L10)</f>
         <v/>
       </c>
-      <c r="N19" s="76" t="str">
+      <c r="N19" s="49" t="str">
         <f>IF(_zhileng_day_hour!M10="","",_zhileng_day_hour!M10)</f>
         <v/>
       </c>
-      <c r="O19" s="76" t="str">
+      <c r="O19" s="49" t="str">
         <f>IF(_zhileng_day_hour!N10="","",_zhileng_day_hour!N10)</f>
         <v/>
       </c>
-      <c r="P19" s="76" t="str">
+      <c r="P19" s="49" t="str">
         <f>IF(_zhileng_day_hour!O10="","",_zhileng_day_hour!O10)</f>
         <v/>
       </c>
-      <c r="Q19" s="75" t="str">
+      <c r="Q19" s="48" t="str">
         <f>IF(_zhileng_day_hour!P10="","",_zhileng_day_hour!P10/1000)</f>
         <v/>
       </c>
-      <c r="R19" s="76" t="str">
+      <c r="R19" s="49" t="str">
         <f>IF(_zhileng_day_hour!Q10="","",_zhileng_day_hour!Q10)</f>
         <v/>
       </c>
-      <c r="S19" s="75" t="str">
+      <c r="S19" s="48" t="str">
         <f>IF(_zhileng_day_hour!R10="","",_zhileng_day_hour!R10)</f>
         <v/>
       </c>
-      <c r="T19" s="76" t="str">
+      <c r="T19" s="49" t="str">
         <f>IF(_zhileng_day_hour!S10="","",_zhileng_day_hour!S10)</f>
         <v/>
       </c>
-      <c r="U19" s="76" t="str">
+      <c r="U19" s="49" t="str">
         <f>IF(_zhileng_day_hour!T10="","",_zhileng_day_hour!T10)</f>
         <v/>
       </c>
-      <c r="V19" s="75" t="str">
+      <c r="V19" s="48" t="str">
         <f>IF(_zhileng_day_hour!U10="","",_zhileng_day_hour!U10)</f>
         <v/>
       </c>
-      <c r="W19" s="76" t="str">
+      <c r="W19" s="49" t="str">
         <f>IF(_zhileng_day_hour!V10="","",_zhileng_day_hour!V10)</f>
         <v/>
       </c>
-      <c r="X19" s="76" t="str">
+      <c r="X19" s="49" t="str">
         <f>IF(_zhileng_day_hour!W10="","",_zhileng_day_hour!W10)</f>
         <v/>
       </c>
-      <c r="Y19" s="75" t="str">
+      <c r="Y19" s="48" t="str">
         <f>IF(_zhileng_day_hour!X10="","",_zhileng_day_hour!X10/1000)</f>
         <v/>
       </c>
-      <c r="Z19" s="75" t="str">
+      <c r="Z19" s="48" t="str">
         <f>IF(_zhileng_day_hour!Y10="","",_zhileng_day_hour!Y10)</f>
         <v/>
       </c>
-      <c r="AA19" s="75" t="str">
+      <c r="AA19" s="48" t="str">
         <f>IF(_zhileng_day_hour!Z10="","",_zhileng_day_hour!Z10)</f>
         <v/>
       </c>
-      <c r="AB19" s="76" t="str">
+      <c r="AB19" s="49" t="str">
         <f>IF(_zhileng_day_hour!AA10="","",_zhileng_day_hour!AA10)</f>
         <v/>
       </c>
-      <c r="AC19" s="75" t="str">
+      <c r="AC19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AB10="","",_zhileng_day_hour!AB10)</f>
         <v/>
       </c>
-      <c r="AD19" s="75" t="str">
+      <c r="AD19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AC10="","",_zhileng_day_hour!AC10)</f>
         <v/>
       </c>
-      <c r="AE19" s="75" t="str">
+      <c r="AE19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AD10="","",_zhileng_day_hour!AD10)</f>
         <v/>
       </c>
-      <c r="AF19" s="75" t="str">
+      <c r="AF19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AE10="","",_zhileng_day_hour!AE10)</f>
         <v/>
       </c>
-      <c r="AG19" s="75" t="str">
+      <c r="AG19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AF10="","",_zhileng_day_hour!AF10)</f>
         <v/>
       </c>
-      <c r="AH19" s="76" t="str">
+      <c r="AH19" s="49" t="str">
         <f>IF(_zhileng_day_hour!AG10="","",_zhileng_day_hour!AG10)</f>
         <v/>
       </c>
-      <c r="AI19" s="75" t="str">
+      <c r="AI19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AH10="","",_zhileng_day_hour!AH10)</f>
         <v/>
       </c>
-      <c r="AJ19" s="75" t="str">
+      <c r="AJ19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AI10="","",_zhileng_day_hour!AI10)</f>
         <v/>
       </c>
-      <c r="AK19" s="75" t="str">
+      <c r="AK19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AJ10="","",_zhileng_day_hour!AJ10)</f>
         <v/>
       </c>
-      <c r="AL19" s="76" t="str">
+      <c r="AL19" s="49" t="str">
         <f>IF(_zhileng_day_hour!AK10="","",_zhileng_day_hour!AK10)</f>
         <v/>
       </c>
-      <c r="AM19" s="76" t="str">
+      <c r="AM19" s="49" t="str">
         <f>IF(_zhileng_day_hour!AL10="","",_zhileng_day_hour!AL10)</f>
         <v/>
       </c>
-      <c r="AN19" s="75" t="str">
+      <c r="AN19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AM10="","",_zhileng_day_hour!AM10)</f>
         <v/>
       </c>
-      <c r="AO19" s="76" t="str">
+      <c r="AO19" s="49" t="str">
         <f>IF(_zhileng_day_hour!AN10="","",_zhileng_day_hour!AN10)</f>
         <v/>
       </c>
-      <c r="AP19" s="76" t="str">
+      <c r="AP19" s="49" t="str">
         <f>IF(_zhileng_day_hour!AO10="","",_zhileng_day_hour!AO10)</f>
         <v/>
       </c>
-      <c r="AQ19" s="75" t="str">
+      <c r="AQ19" s="48" t="str">
         <f>IF(_zhileng_day_hour!AP10="","",_zhileng_day_hour!AP10)</f>
         <v/>
       </c>
-      <c r="AR19" s="76" t="str">
+      <c r="AR19" s="49" t="str">
         <f>IF(_zhileng_day_hour!AQ10="","",_zhileng_day_hour!AQ10)</f>
         <v/>
       </c>
-      <c r="AS19" s="76" t="str">
+      <c r="AS19" s="49" t="str">
         <f>IF(_zhileng_day_hour!AR10="","",_zhileng_day_hour!AR10)</f>
         <v/>
       </c>
-      <c r="AT19" s="78" t="str">
+      <c r="AT19" s="51" t="str">
         <f>IF(_zhileng_day_hour!AS10="","",_zhileng_day_hour!AS10)</f>
         <v/>
       </c>
     </row>
     <row r="20" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="79">
+      <c r="A20" s="52">
         <v>0.375</v>
       </c>
       <c r="B20" s="17" t="str">
@@ -5031,13 +5486,13 @@
         <f>IF(_zhileng_day_hour!AR11="","",_zhileng_day_hour!AR11)</f>
         <v/>
       </c>
-      <c r="AT20" s="80" t="str">
+      <c r="AT20" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS11="","",_zhileng_day_hour!AS11)</f>
         <v/>
       </c>
     </row>
     <row r="21" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="79">
+      <c r="A21" s="52">
         <v>0.41666666666666702</v>
       </c>
       <c r="B21" s="17" t="str">
@@ -5216,13 +5671,13 @@
         <f>IF(_zhileng_day_hour!AR12="","",_zhileng_day_hour!AR12)</f>
         <v/>
       </c>
-      <c r="AT21" s="80" t="str">
+      <c r="AT21" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS12="","",_zhileng_day_hour!AS12)</f>
         <v/>
       </c>
     </row>
     <row r="22" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="79">
+      <c r="A22" s="52">
         <v>0.45833333333333298</v>
       </c>
       <c r="B22" s="17" t="str">
@@ -5401,13 +5856,13 @@
         <f>IF(_zhileng_day_hour!AR13="","",_zhileng_day_hour!AR13)</f>
         <v/>
       </c>
-      <c r="AT22" s="80" t="str">
+      <c r="AT22" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS13="","",_zhileng_day_hour!AS13)</f>
         <v/>
       </c>
     </row>
     <row r="23" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="79">
+      <c r="A23" s="52">
         <v>0.5</v>
       </c>
       <c r="B23" s="17" t="str">
@@ -5586,13 +6041,13 @@
         <f>IF(_zhileng_day_hour!AR14="","",_zhileng_day_hour!AR14)</f>
         <v/>
       </c>
-      <c r="AT23" s="80" t="str">
+      <c r="AT23" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS14="","",_zhileng_day_hour!AS14)</f>
         <v/>
       </c>
     </row>
     <row r="24" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="79">
+      <c r="A24" s="52">
         <v>0.54166666666666596</v>
       </c>
       <c r="B24" s="17" t="str">
@@ -5771,13 +6226,13 @@
         <f>IF(_zhileng_day_hour!AR15="","",_zhileng_day_hour!AR15)</f>
         <v/>
       </c>
-      <c r="AT24" s="80" t="str">
+      <c r="AT24" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS15="","",_zhileng_day_hour!AS15)</f>
         <v/>
       </c>
     </row>
     <row r="25" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="79">
+      <c r="A25" s="52">
         <v>0.58333333333333304</v>
       </c>
       <c r="B25" s="17" t="str">
@@ -5956,383 +6411,383 @@
         <f>IF(_zhileng_day_hour!AR16="","",_zhileng_day_hour!AR16)</f>
         <v/>
       </c>
-      <c r="AT25" s="80" t="str">
+      <c r="AT25" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS16="","",_zhileng_day_hour!AS16)</f>
         <v/>
       </c>
     </row>
     <row r="26" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="83">
+      <c r="A26" s="56">
         <v>0.625</v>
       </c>
-      <c r="B26" s="84" t="str">
+      <c r="B26" s="57" t="str">
         <f>IF(_zhileng_day_hour!A17="","",_zhileng_day_hour!A17)</f>
         <v/>
       </c>
-      <c r="C26" s="85" t="str">
+      <c r="C26" s="58" t="str">
         <f>IF(_zhileng_day_hour!B17="","",_zhileng_day_hour!B17)</f>
         <v/>
       </c>
-      <c r="D26" s="85" t="str">
+      <c r="D26" s="58" t="str">
         <f>IF(_zhileng_day_hour!C17="","",_zhileng_day_hour!C17)</f>
         <v/>
       </c>
-      <c r="E26" s="86" t="str">
+      <c r="E26" s="59" t="str">
         <f>IF(_zhileng_day_hour!D17="","",_zhileng_day_hour!D17)</f>
         <v/>
       </c>
-      <c r="F26" s="86" t="str">
+      <c r="F26" s="59" t="str">
         <f>IF(_zhileng_day_hour!E17="","",_zhileng_day_hour!E17)</f>
         <v/>
       </c>
-      <c r="G26" s="86" t="str">
+      <c r="G26" s="59" t="str">
         <f>IF(_zhileng_day_hour!F17="","",_zhileng_day_hour!F17/1000)</f>
         <v/>
       </c>
-      <c r="H26" s="86" t="str">
+      <c r="H26" s="59" t="str">
         <f>IF(_zhileng_day_hour!G17="","",_zhileng_day_hour!G17/1000)</f>
         <v/>
       </c>
-      <c r="I26" s="86" t="str">
+      <c r="I26" s="59" t="str">
         <f>IF(_zhileng_day_hour!H17="","",_zhileng_day_hour!H17/1000)</f>
         <v/>
       </c>
-      <c r="J26" s="85" t="str">
+      <c r="J26" s="58" t="str">
         <f>IF(_zhileng_day_hour!I17="","",_zhileng_day_hour!I17)</f>
         <v/>
       </c>
-      <c r="K26" s="85" t="str">
+      <c r="K26" s="58" t="str">
         <f>IF(_zhileng_day_hour!J17="","",_zhileng_day_hour!J17)</f>
         <v/>
       </c>
-      <c r="L26" s="84" t="str">
+      <c r="L26" s="57" t="str">
         <f>IF(_zhileng_day_hour!K17="","",_zhileng_day_hour!K17)</f>
         <v/>
       </c>
-      <c r="M26" s="84" t="str">
+      <c r="M26" s="57" t="str">
         <f>IF(_zhileng_day_hour!L17="","",_zhileng_day_hour!L17)</f>
         <v/>
       </c>
-      <c r="N26" s="85" t="str">
+      <c r="N26" s="58" t="str">
         <f>IF(_zhileng_day_hour!M17="","",_zhileng_day_hour!M17)</f>
         <v/>
       </c>
-      <c r="O26" s="85" t="str">
+      <c r="O26" s="58" t="str">
         <f>IF(_zhileng_day_hour!N17="","",_zhileng_day_hour!N17)</f>
         <v/>
       </c>
-      <c r="P26" s="85" t="str">
+      <c r="P26" s="58" t="str">
         <f>IF(_zhileng_day_hour!O17="","",_zhileng_day_hour!O17)</f>
         <v/>
       </c>
-      <c r="Q26" s="84" t="str">
+      <c r="Q26" s="57" t="str">
         <f>IF(_zhileng_day_hour!P17="","",_zhileng_day_hour!P17/1000)</f>
         <v/>
       </c>
-      <c r="R26" s="85" t="str">
+      <c r="R26" s="58" t="str">
         <f>IF(_zhileng_day_hour!Q17="","",_zhileng_day_hour!Q17)</f>
         <v/>
       </c>
-      <c r="S26" s="84" t="str">
+      <c r="S26" s="57" t="str">
         <f>IF(_zhileng_day_hour!R17="","",_zhileng_day_hour!R17)</f>
         <v/>
       </c>
-      <c r="T26" s="85" t="str">
+      <c r="T26" s="58" t="str">
         <f>IF(_zhileng_day_hour!S17="","",_zhileng_day_hour!S17)</f>
         <v/>
       </c>
-      <c r="U26" s="85" t="str">
+      <c r="U26" s="58" t="str">
         <f>IF(_zhileng_day_hour!T17="","",_zhileng_day_hour!T17)</f>
         <v/>
       </c>
-      <c r="V26" s="84" t="str">
+      <c r="V26" s="57" t="str">
         <f>IF(_zhileng_day_hour!U17="","",_zhileng_day_hour!U17)</f>
         <v/>
       </c>
-      <c r="W26" s="85" t="str">
+      <c r="W26" s="58" t="str">
         <f>IF(_zhileng_day_hour!V17="","",_zhileng_day_hour!V17)</f>
         <v/>
       </c>
-      <c r="X26" s="85" t="str">
+      <c r="X26" s="58" t="str">
         <f>IF(_zhileng_day_hour!W17="","",_zhileng_day_hour!W17)</f>
         <v/>
       </c>
-      <c r="Y26" s="84" t="str">
+      <c r="Y26" s="57" t="str">
         <f>IF(_zhileng_day_hour!X17="","",_zhileng_day_hour!X17/1000)</f>
         <v/>
       </c>
-      <c r="Z26" s="84" t="str">
+      <c r="Z26" s="57" t="str">
         <f>IF(_zhileng_day_hour!Y17="","",_zhileng_day_hour!Y17)</f>
         <v/>
       </c>
-      <c r="AA26" s="84" t="str">
+      <c r="AA26" s="57" t="str">
         <f>IF(_zhileng_day_hour!Z17="","",_zhileng_day_hour!Z17)</f>
         <v/>
       </c>
-      <c r="AB26" s="85" t="str">
+      <c r="AB26" s="58" t="str">
         <f>IF(_zhileng_day_hour!AA17="","",_zhileng_day_hour!AA17)</f>
         <v/>
       </c>
-      <c r="AC26" s="84" t="str">
+      <c r="AC26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AB17="","",_zhileng_day_hour!AB17)</f>
         <v/>
       </c>
-      <c r="AD26" s="84" t="str">
+      <c r="AD26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AC17="","",_zhileng_day_hour!AC17)</f>
         <v/>
       </c>
-      <c r="AE26" s="84" t="str">
+      <c r="AE26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AD17="","",_zhileng_day_hour!AD17)</f>
         <v/>
       </c>
-      <c r="AF26" s="84" t="str">
+      <c r="AF26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AE17="","",_zhileng_day_hour!AE17)</f>
         <v/>
       </c>
-      <c r="AG26" s="84" t="str">
+      <c r="AG26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AF17="","",_zhileng_day_hour!AF17)</f>
         <v/>
       </c>
-      <c r="AH26" s="85" t="str">
+      <c r="AH26" s="58" t="str">
         <f>IF(_zhileng_day_hour!AG17="","",_zhileng_day_hour!AG17)</f>
         <v/>
       </c>
-      <c r="AI26" s="84" t="str">
+      <c r="AI26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AH17="","",_zhileng_day_hour!AH17)</f>
         <v/>
       </c>
-      <c r="AJ26" s="84" t="str">
+      <c r="AJ26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AI17="","",_zhileng_day_hour!AI17)</f>
         <v/>
       </c>
-      <c r="AK26" s="84" t="str">
+      <c r="AK26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AJ17="","",_zhileng_day_hour!AJ17)</f>
         <v/>
       </c>
-      <c r="AL26" s="85" t="str">
+      <c r="AL26" s="58" t="str">
         <f>IF(_zhileng_day_hour!AK17="","",_zhileng_day_hour!AK17)</f>
         <v/>
       </c>
-      <c r="AM26" s="85" t="str">
+      <c r="AM26" s="58" t="str">
         <f>IF(_zhileng_day_hour!AL17="","",_zhileng_day_hour!AL17)</f>
         <v/>
       </c>
-      <c r="AN26" s="84" t="str">
+      <c r="AN26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AM17="","",_zhileng_day_hour!AM17)</f>
         <v/>
       </c>
-      <c r="AO26" s="85" t="str">
+      <c r="AO26" s="58" t="str">
         <f>IF(_zhileng_day_hour!AN17="","",_zhileng_day_hour!AN17)</f>
         <v/>
       </c>
-      <c r="AP26" s="85" t="str">
+      <c r="AP26" s="58" t="str">
         <f>IF(_zhileng_day_hour!AO17="","",_zhileng_day_hour!AO17)</f>
         <v/>
       </c>
-      <c r="AQ26" s="84" t="str">
+      <c r="AQ26" s="57" t="str">
         <f>IF(_zhileng_day_hour!AP17="","",_zhileng_day_hour!AP17)</f>
         <v/>
       </c>
-      <c r="AR26" s="85" t="str">
+      <c r="AR26" s="58" t="str">
         <f>IF(_zhileng_day_hour!AQ17="","",_zhileng_day_hour!AQ17)</f>
         <v/>
       </c>
-      <c r="AS26" s="85" t="str">
+      <c r="AS26" s="58" t="str">
         <f>IF(_zhileng_day_hour!AR17="","",_zhileng_day_hour!AR17)</f>
         <v/>
       </c>
-      <c r="AT26" s="87" t="str">
+      <c r="AT26" s="60" t="str">
         <f>IF(_zhileng_day_hour!AS17="","",_zhileng_day_hour!AS17)</f>
         <v/>
       </c>
     </row>
     <row r="27" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="74">
+      <c r="A27" s="47">
         <v>0.66666666666666696</v>
       </c>
-      <c r="B27" s="75" t="str">
+      <c r="B27" s="48" t="str">
         <f>IF(_zhileng_day_hour!A18="","",_zhileng_day_hour!A18)</f>
         <v/>
       </c>
-      <c r="C27" s="76" t="str">
+      <c r="C27" s="49" t="str">
         <f>IF(_zhileng_day_hour!B18="","",_zhileng_day_hour!B18)</f>
         <v/>
       </c>
-      <c r="D27" s="76" t="str">
+      <c r="D27" s="49" t="str">
         <f>IF(_zhileng_day_hour!C18="","",_zhileng_day_hour!C18)</f>
         <v/>
       </c>
-      <c r="E27" s="77" t="str">
+      <c r="E27" s="50" t="str">
         <f>IF(_zhileng_day_hour!D18="","",_zhileng_day_hour!D18)</f>
         <v/>
       </c>
-      <c r="F27" s="77" t="str">
+      <c r="F27" s="50" t="str">
         <f>IF(_zhileng_day_hour!E18="","",_zhileng_day_hour!E18)</f>
         <v/>
       </c>
-      <c r="G27" s="77" t="str">
+      <c r="G27" s="50" t="str">
         <f>IF(_zhileng_day_hour!F18="","",_zhileng_day_hour!F18/1000)</f>
         <v/>
       </c>
-      <c r="H27" s="77" t="str">
+      <c r="H27" s="50" t="str">
         <f>IF(_zhileng_day_hour!G18="","",_zhileng_day_hour!G18/1000)</f>
         <v/>
       </c>
-      <c r="I27" s="77" t="str">
+      <c r="I27" s="50" t="str">
         <f>IF(_zhileng_day_hour!H18="","",_zhileng_day_hour!H18/1000)</f>
         <v/>
       </c>
-      <c r="J27" s="76" t="str">
+      <c r="J27" s="49" t="str">
         <f>IF(_zhileng_day_hour!I18="","",_zhileng_day_hour!I18)</f>
         <v/>
       </c>
-      <c r="K27" s="76" t="str">
+      <c r="K27" s="49" t="str">
         <f>IF(_zhileng_day_hour!J18="","",_zhileng_day_hour!J18)</f>
         <v/>
       </c>
-      <c r="L27" s="75" t="str">
+      <c r="L27" s="48" t="str">
         <f>IF(_zhileng_day_hour!K18="","",_zhileng_day_hour!K18)</f>
         <v/>
       </c>
-      <c r="M27" s="75" t="str">
+      <c r="M27" s="48" t="str">
         <f>IF(_zhileng_day_hour!L18="","",_zhileng_day_hour!L18)</f>
         <v/>
       </c>
-      <c r="N27" s="76" t="str">
+      <c r="N27" s="49" t="str">
         <f>IF(_zhileng_day_hour!M18="","",_zhileng_day_hour!M18)</f>
         <v/>
       </c>
-      <c r="O27" s="76" t="str">
+      <c r="O27" s="49" t="str">
         <f>IF(_zhileng_day_hour!N18="","",_zhileng_day_hour!N18)</f>
         <v/>
       </c>
-      <c r="P27" s="76" t="str">
+      <c r="P27" s="49" t="str">
         <f>IF(_zhileng_day_hour!O18="","",_zhileng_day_hour!O18)</f>
         <v/>
       </c>
-      <c r="Q27" s="75" t="str">
+      <c r="Q27" s="48" t="str">
         <f>IF(_zhileng_day_hour!P18="","",_zhileng_day_hour!P18/1000)</f>
         <v/>
       </c>
-      <c r="R27" s="76" t="str">
+      <c r="R27" s="49" t="str">
         <f>IF(_zhileng_day_hour!Q18="","",_zhileng_day_hour!Q18)</f>
         <v/>
       </c>
-      <c r="S27" s="75" t="str">
+      <c r="S27" s="48" t="str">
         <f>IF(_zhileng_day_hour!R18="","",_zhileng_day_hour!R18)</f>
         <v/>
       </c>
-      <c r="T27" s="76" t="str">
+      <c r="T27" s="49" t="str">
         <f>IF(_zhileng_day_hour!S18="","",_zhileng_day_hour!S18)</f>
         <v/>
       </c>
-      <c r="U27" s="76" t="str">
+      <c r="U27" s="49" t="str">
         <f>IF(_zhileng_day_hour!T18="","",_zhileng_day_hour!T18)</f>
         <v/>
       </c>
-      <c r="V27" s="75" t="str">
+      <c r="V27" s="48" t="str">
         <f>IF(_zhileng_day_hour!U18="","",_zhileng_day_hour!U18)</f>
         <v/>
       </c>
-      <c r="W27" s="76" t="str">
+      <c r="W27" s="49" t="str">
         <f>IF(_zhileng_day_hour!V18="","",_zhileng_day_hour!V18)</f>
         <v/>
       </c>
-      <c r="X27" s="76" t="str">
+      <c r="X27" s="49" t="str">
         <f>IF(_zhileng_day_hour!W18="","",_zhileng_day_hour!W18)</f>
         <v/>
       </c>
-      <c r="Y27" s="75" t="str">
+      <c r="Y27" s="48" t="str">
         <f>IF(_zhileng_day_hour!X18="","",_zhileng_day_hour!X18/1000)</f>
         <v/>
       </c>
-      <c r="Z27" s="75" t="str">
+      <c r="Z27" s="48" t="str">
         <f>IF(_zhileng_day_hour!Y18="","",_zhileng_day_hour!Y18)</f>
         <v/>
       </c>
-      <c r="AA27" s="75" t="str">
+      <c r="AA27" s="48" t="str">
         <f>IF(_zhileng_day_hour!Z18="","",_zhileng_day_hour!Z18)</f>
         <v/>
       </c>
-      <c r="AB27" s="76" t="str">
+      <c r="AB27" s="49" t="str">
         <f>IF(_zhileng_day_hour!AA18="","",_zhileng_day_hour!AA18)</f>
         <v/>
       </c>
-      <c r="AC27" s="75" t="str">
+      <c r="AC27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AB18="","",_zhileng_day_hour!AB18)</f>
         <v/>
       </c>
-      <c r="AD27" s="75" t="str">
+      <c r="AD27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AC18="","",_zhileng_day_hour!AC18)</f>
         <v/>
       </c>
-      <c r="AE27" s="75" t="str">
+      <c r="AE27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AD18="","",_zhileng_day_hour!AD18)</f>
         <v/>
       </c>
-      <c r="AF27" s="75" t="str">
+      <c r="AF27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AE18="","",_zhileng_day_hour!AE18)</f>
         <v/>
       </c>
-      <c r="AG27" s="75" t="str">
+      <c r="AG27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AF18="","",_zhileng_day_hour!AF18)</f>
         <v/>
       </c>
-      <c r="AH27" s="76" t="str">
+      <c r="AH27" s="49" t="str">
         <f>IF(_zhileng_day_hour!AG18="","",_zhileng_day_hour!AG18)</f>
         <v/>
       </c>
-      <c r="AI27" s="75" t="str">
+      <c r="AI27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AH18="","",_zhileng_day_hour!AH18)</f>
         <v/>
       </c>
-      <c r="AJ27" s="75" t="str">
+      <c r="AJ27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AI18="","",_zhileng_day_hour!AI18)</f>
         <v/>
       </c>
-      <c r="AK27" s="75" t="str">
+      <c r="AK27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AJ18="","",_zhileng_day_hour!AJ18)</f>
         <v/>
       </c>
-      <c r="AL27" s="76" t="str">
+      <c r="AL27" s="49" t="str">
         <f>IF(_zhileng_day_hour!AK18="","",_zhileng_day_hour!AK18)</f>
         <v/>
       </c>
-      <c r="AM27" s="76" t="str">
+      <c r="AM27" s="49" t="str">
         <f>IF(_zhileng_day_hour!AL18="","",_zhileng_day_hour!AL18)</f>
         <v/>
       </c>
-      <c r="AN27" s="75" t="str">
+      <c r="AN27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AM18="","",_zhileng_day_hour!AM18)</f>
         <v/>
       </c>
-      <c r="AO27" s="76" t="str">
+      <c r="AO27" s="49" t="str">
         <f>IF(_zhileng_day_hour!AN18="","",_zhileng_day_hour!AN18)</f>
         <v/>
       </c>
-      <c r="AP27" s="76" t="str">
+      <c r="AP27" s="49" t="str">
         <f>IF(_zhileng_day_hour!AO18="","",_zhileng_day_hour!AO18)</f>
         <v/>
       </c>
-      <c r="AQ27" s="75" t="str">
+      <c r="AQ27" s="48" t="str">
         <f>IF(_zhileng_day_hour!AP18="","",_zhileng_day_hour!AP18)</f>
         <v/>
       </c>
-      <c r="AR27" s="76" t="str">
+      <c r="AR27" s="49" t="str">
         <f>IF(_zhileng_day_hour!AQ18="","",_zhileng_day_hour!AQ18)</f>
         <v/>
       </c>
-      <c r="AS27" s="76" t="str">
+      <c r="AS27" s="49" t="str">
         <f>IF(_zhileng_day_hour!AR18="","",_zhileng_day_hour!AR18)</f>
         <v/>
       </c>
-      <c r="AT27" s="78" t="str">
+      <c r="AT27" s="51" t="str">
         <f>IF(_zhileng_day_hour!AS18="","",_zhileng_day_hour!AS18)</f>
         <v/>
       </c>
     </row>
     <row r="28" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="79">
+      <c r="A28" s="52">
         <v>0.70833333333333304</v>
       </c>
       <c r="B28" s="17" t="str">
@@ -6511,13 +6966,13 @@
         <f>IF(_zhileng_day_hour!AR19="","",_zhileng_day_hour!AR19)</f>
         <v/>
       </c>
-      <c r="AT28" s="80" t="str">
+      <c r="AT28" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS19="","",_zhileng_day_hour!AS19)</f>
         <v/>
       </c>
     </row>
     <row r="29" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="79">
+      <c r="A29" s="52">
         <v>0.75</v>
       </c>
       <c r="B29" s="17" t="str">
@@ -6696,13 +7151,13 @@
         <f>IF(_zhileng_day_hour!AR20="","",_zhileng_day_hour!AR20)</f>
         <v/>
       </c>
-      <c r="AT29" s="80" t="str">
+      <c r="AT29" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS20="","",_zhileng_day_hour!AS20)</f>
         <v/>
       </c>
     </row>
     <row r="30" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="79">
+      <c r="A30" s="52">
         <v>0.79166666666666696</v>
       </c>
       <c r="B30" s="17" t="str">
@@ -6881,13 +7336,13 @@
         <f>IF(_zhileng_day_hour!AR21="","",_zhileng_day_hour!AR21)</f>
         <v/>
       </c>
-      <c r="AT30" s="80" t="str">
+      <c r="AT30" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS21="","",_zhileng_day_hour!AS21)</f>
         <v/>
       </c>
     </row>
     <row r="31" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="79">
+      <c r="A31" s="52">
         <v>0.83333333333333404</v>
       </c>
       <c r="B31" s="17" t="str">
@@ -7066,13 +7521,13 @@
         <f>IF(_zhileng_day_hour!AR22="","",_zhileng_day_hour!AR22)</f>
         <v/>
       </c>
-      <c r="AT31" s="80" t="str">
+      <c r="AT31" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS22="","",_zhileng_day_hour!AS22)</f>
         <v/>
       </c>
     </row>
     <row r="32" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="79">
+      <c r="A32" s="52">
         <v>0.875000000000001</v>
       </c>
       <c r="B32" s="17" t="str">
@@ -7251,13 +7706,13 @@
         <f>IF(_zhileng_day_hour!AR23="","",_zhileng_day_hour!AR23)</f>
         <v/>
       </c>
-      <c r="AT32" s="80" t="str">
+      <c r="AT32" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS23="","",_zhileng_day_hour!AS23)</f>
         <v/>
       </c>
     </row>
     <row r="33" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="79">
+      <c r="A33" s="52">
         <v>0.91666666666666696</v>
       </c>
       <c r="B33" s="17" t="str">
@@ -7436,13 +7891,13 @@
         <f>IF(_zhileng_day_hour!AR24="","",_zhileng_day_hour!AR24)</f>
         <v/>
       </c>
-      <c r="AT33" s="80" t="str">
+      <c r="AT33" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS24="","",_zhileng_day_hour!AS24)</f>
         <v/>
       </c>
     </row>
     <row r="34" spans="1:46" ht="19.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="79">
+      <c r="A34" s="52">
         <v>0.95833333333333404</v>
       </c>
       <c r="B34" s="17" t="str">
@@ -7621,308 +8076,337 @@
         <f>IF(_zhileng_day_hour!AR25="","",_zhileng_day_hour!AR25)</f>
         <v/>
       </c>
-      <c r="AT34" s="80" t="str">
+      <c r="AT34" s="53" t="str">
         <f>IF(_zhileng_day_hour!AS25="","",_zhileng_day_hour!AS25)</f>
         <v/>
       </c>
     </row>
     <row r="35" spans="1:46" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="93" t="s">
-        <v>142</v>
-      </c>
-      <c r="B35" s="84" t="str">
+      <c r="A35" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="B35" s="57" t="str">
         <f t="shared" ref="B35:AT35" si="0">IFERROR(AVERAGE(B11:B34),"")</f>
         <v/>
       </c>
-      <c r="C35" s="85" t="str">
+      <c r="C35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="D35" s="85" t="str">
+      <c r="D35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="E35" s="86" t="str">
+      <c r="E35" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="F35" s="86" t="str">
+      <c r="F35" s="59" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="G35" s="86" t="str">
+      <c r="G35" s="59" t="str">
         <f>IF(_zhileng_day_hour!F26="","",_zhileng_day_hour!F26/1000)</f>
         <v/>
       </c>
-      <c r="H35" s="86" t="str">
+      <c r="H35" s="59" t="str">
         <f>IF(_zhileng_day_hour!G26="","",_zhileng_day_hour!G26/1000)</f>
         <v/>
       </c>
-      <c r="I35" s="86" t="str">
+      <c r="I35" s="59" t="str">
         <f>IF(_zhileng_day_hour!H26="","",_zhileng_day_hour!H26/1000)</f>
         <v/>
       </c>
-      <c r="J35" s="85" t="str">
+      <c r="J35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="K35" s="85" t="str">
+      <c r="K35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="L35" s="84" t="str">
+      <c r="L35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="M35" s="84" t="str">
+      <c r="M35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="N35" s="85" t="str">
+      <c r="N35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="O35" s="85" t="str">
+      <c r="O35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="P35" s="85" t="str">
+      <c r="P35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Q35" s="84" t="str">
+      <c r="Q35" s="57" t="str">
         <f>IF(_zhileng_day_hour!P26="","",_zhileng_day_hour!P26/1000)</f>
         <v/>
       </c>
-      <c r="R35" s="85" t="str">
+      <c r="R35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="S35" s="84" t="str">
+      <c r="S35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="T35" s="85" t="str">
+      <c r="T35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="U35" s="85" t="str">
+      <c r="U35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="V35" s="84" t="str">
+      <c r="V35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="W35" s="85" t="str">
+      <c r="W35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="X35" s="85" t="str">
+      <c r="X35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="Y35" s="84" t="str">
+      <c r="Y35" s="57" t="str">
         <f>IF(_zhileng_day_hour!X26="","",_zhileng_day_hour!X26/1000)</f>
         <v/>
       </c>
-      <c r="Z35" s="84" t="str">
+      <c r="Z35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AA35" s="84" t="str">
+      <c r="AA35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AB35" s="85" t="str">
+      <c r="AB35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AC35" s="84" t="str">
+      <c r="AC35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AD35" s="84" t="str">
+      <c r="AD35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AE35" s="84" t="str">
+      <c r="AE35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AF35" s="84" t="str">
+      <c r="AF35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AG35" s="84" t="str">
+      <c r="AG35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AH35" s="85" t="str">
+      <c r="AH35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AI35" s="84" t="str">
+      <c r="AI35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AJ35" s="84" t="str">
+      <c r="AJ35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AK35" s="84" t="str">
+      <c r="AK35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AL35" s="85" t="str">
+      <c r="AL35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AM35" s="85" t="str">
+      <c r="AM35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AN35" s="84" t="str">
+      <c r="AN35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AO35" s="85" t="str">
+      <c r="AO35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AP35" s="85" t="str">
+      <c r="AP35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AQ35" s="84" t="str">
+      <c r="AQ35" s="57" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AR35" s="85" t="str">
+      <c r="AR35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AS35" s="85" t="str">
+      <c r="AS35" s="58" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
-      <c r="AT35" s="87" t="str">
+      <c r="AT35" s="60" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
     <row r="36" spans="1:46" ht="91.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="88" t="s">
+      <c r="A36" s="68" t="s">
+        <v>140</v>
+      </c>
+      <c r="B36" s="71" t="s">
+        <v>141</v>
+      </c>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="73"/>
+      <c r="P36" s="71" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q36" s="72"/>
+      <c r="R36" s="72"/>
+      <c r="S36" s="72"/>
+      <c r="T36" s="72"/>
+      <c r="U36" s="72"/>
+      <c r="V36" s="72"/>
+      <c r="W36" s="72"/>
+      <c r="X36" s="72"/>
+      <c r="Y36" s="72"/>
+      <c r="Z36" s="72"/>
+      <c r="AA36" s="72"/>
+      <c r="AB36" s="72"/>
+      <c r="AC36" s="72"/>
+      <c r="AD36" s="72"/>
+      <c r="AE36" s="72"/>
+      <c r="AF36" s="73"/>
+      <c r="AG36" s="71" t="s">
         <v>143</v>
       </c>
-      <c r="B36" s="89" t="s">
-        <v>144</v>
-      </c>
-      <c r="C36" s="90"/>
-      <c r="D36" s="90"/>
-      <c r="E36" s="90"/>
-      <c r="F36" s="90"/>
-      <c r="G36" s="90"/>
-      <c r="H36" s="90"/>
-      <c r="I36" s="90"/>
-      <c r="J36" s="90"/>
-      <c r="K36" s="90"/>
-      <c r="L36" s="90"/>
-      <c r="M36" s="90"/>
-      <c r="N36" s="90"/>
-      <c r="O36" s="91"/>
-      <c r="P36" s="89" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q36" s="90"/>
-      <c r="R36" s="90"/>
-      <c r="S36" s="90"/>
-      <c r="T36" s="90"/>
-      <c r="U36" s="90"/>
-      <c r="V36" s="90"/>
-      <c r="W36" s="90"/>
-      <c r="X36" s="90"/>
-      <c r="Y36" s="90"/>
-      <c r="Z36" s="90"/>
-      <c r="AA36" s="90"/>
-      <c r="AB36" s="90"/>
-      <c r="AC36" s="90"/>
-      <c r="AD36" s="90"/>
-      <c r="AE36" s="90"/>
-      <c r="AF36" s="91"/>
-      <c r="AG36" s="89" t="s">
-        <v>146</v>
-      </c>
-      <c r="AH36" s="92"/>
-      <c r="AI36" s="90"/>
-      <c r="AJ36" s="90"/>
-      <c r="AK36" s="90"/>
-      <c r="AL36" s="92"/>
-      <c r="AM36" s="92"/>
-      <c r="AN36" s="90"/>
-      <c r="AO36" s="92"/>
-      <c r="AP36" s="92"/>
-      <c r="AQ36" s="90"/>
-      <c r="AR36" s="92"/>
-      <c r="AS36" s="92"/>
-      <c r="AT36" s="91"/>
+      <c r="AH36" s="74"/>
+      <c r="AI36" s="72"/>
+      <c r="AJ36" s="72"/>
+      <c r="AK36" s="72"/>
+      <c r="AL36" s="74"/>
+      <c r="AM36" s="74"/>
+      <c r="AN36" s="72"/>
+      <c r="AO36" s="74"/>
+      <c r="AP36" s="74"/>
+      <c r="AQ36" s="72"/>
+      <c r="AR36" s="74"/>
+      <c r="AS36" s="74"/>
+      <c r="AT36" s="73"/>
     </row>
     <row r="37" spans="1:46" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="62"/>
-      <c r="B37" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="C37" s="53"/>
-      <c r="D37" s="53"/>
-      <c r="E37" s="53"/>
-      <c r="F37" s="53"/>
-      <c r="G37" s="53"/>
-      <c r="H37" s="53"/>
-      <c r="I37" s="53"/>
-      <c r="J37" s="53"/>
-      <c r="K37" s="53"/>
-      <c r="L37" s="53"/>
-      <c r="M37" s="53"/>
-      <c r="N37" s="53"/>
-      <c r="O37" s="54"/>
-      <c r="P37" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="Q37" s="56"/>
-      <c r="R37" s="56"/>
-      <c r="S37" s="56"/>
-      <c r="T37" s="56"/>
-      <c r="U37" s="56"/>
-      <c r="V37" s="56"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="56"/>
-      <c r="Y37" s="56"/>
-      <c r="Z37" s="56"/>
-      <c r="AA37" s="56"/>
-      <c r="AB37" s="56"/>
-      <c r="AC37" s="56"/>
-      <c r="AD37" s="56"/>
-      <c r="AE37" s="56"/>
-      <c r="AF37" s="57"/>
-      <c r="AG37" s="58" t="s">
-        <v>149</v>
-      </c>
-      <c r="AH37" s="59"/>
-      <c r="AI37" s="56"/>
-      <c r="AJ37" s="56"/>
-      <c r="AK37" s="56"/>
-      <c r="AL37" s="59"/>
-      <c r="AM37" s="59"/>
-      <c r="AN37" s="56"/>
-      <c r="AO37" s="59"/>
-      <c r="AP37" s="59"/>
-      <c r="AQ37" s="56"/>
-      <c r="AR37" s="59"/>
-      <c r="AS37" s="59"/>
-      <c r="AT37" s="57"/>
+      <c r="A37" s="69"/>
+      <c r="B37" s="75" t="s">
+        <v>144</v>
+      </c>
+      <c r="C37" s="76"/>
+      <c r="D37" s="76"/>
+      <c r="E37" s="76"/>
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="76"/>
+      <c r="K37" s="76"/>
+      <c r="L37" s="76"/>
+      <c r="M37" s="76"/>
+      <c r="N37" s="76"/>
+      <c r="O37" s="77"/>
+      <c r="P37" s="78" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q37" s="79"/>
+      <c r="R37" s="79"/>
+      <c r="S37" s="79"/>
+      <c r="T37" s="79"/>
+      <c r="U37" s="79"/>
+      <c r="V37" s="79"/>
+      <c r="W37" s="79"/>
+      <c r="X37" s="79"/>
+      <c r="Y37" s="79"/>
+      <c r="Z37" s="79"/>
+      <c r="AA37" s="79"/>
+      <c r="AB37" s="79"/>
+      <c r="AC37" s="79"/>
+      <c r="AD37" s="79"/>
+      <c r="AE37" s="79"/>
+      <c r="AF37" s="80"/>
+      <c r="AG37" s="81" t="s">
+        <v>146</v>
+      </c>
+      <c r="AH37" s="82"/>
+      <c r="AI37" s="79"/>
+      <c r="AJ37" s="79"/>
+      <c r="AK37" s="79"/>
+      <c r="AL37" s="82"/>
+      <c r="AM37" s="82"/>
+      <c r="AN37" s="79"/>
+      <c r="AO37" s="82"/>
+      <c r="AP37" s="82"/>
+      <c r="AQ37" s="79"/>
+      <c r="AR37" s="82"/>
+      <c r="AS37" s="82"/>
+      <c r="AT37" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="45">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="C2:F2"/>
+    <mergeCell ref="U2:Y2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="O3:V3"/>
+    <mergeCell ref="W3:AF3"/>
+    <mergeCell ref="A3:A6"/>
+    <mergeCell ref="S4:S5"/>
+    <mergeCell ref="T4:T5"/>
+    <mergeCell ref="U4:U5"/>
+    <mergeCell ref="V4:V5"/>
+    <mergeCell ref="Y4:Y5"/>
+    <mergeCell ref="Z4:Z5"/>
+    <mergeCell ref="AA4:AA5"/>
+    <mergeCell ref="AB4:AB5"/>
+    <mergeCell ref="AL4:AN4"/>
+    <mergeCell ref="AO4:AQ4"/>
+    <mergeCell ref="AR4:AT4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
+    <mergeCell ref="N4:N5"/>
+    <mergeCell ref="Q4:Q5"/>
+    <mergeCell ref="R4:R5"/>
+    <mergeCell ref="O4:P4"/>
+    <mergeCell ref="W4:X4"/>
+    <mergeCell ref="AC4:AD4"/>
+    <mergeCell ref="AE4:AF4"/>
+    <mergeCell ref="AI4:AK4"/>
     <mergeCell ref="AG3:AG5"/>
     <mergeCell ref="AH3:AH5"/>
     <mergeCell ref="B3:D4"/>
@@ -7939,370 +8423,341 @@
     <mergeCell ref="AG37:AT37"/>
     <mergeCell ref="AI3:AT3"/>
     <mergeCell ref="E4:F4"/>
-    <mergeCell ref="O4:P4"/>
-    <mergeCell ref="W4:X4"/>
-    <mergeCell ref="AC4:AD4"/>
-    <mergeCell ref="AE4:AF4"/>
-    <mergeCell ref="AI4:AK4"/>
-    <mergeCell ref="AL4:AN4"/>
-    <mergeCell ref="AO4:AQ4"/>
-    <mergeCell ref="AR4:AT4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
-    <mergeCell ref="N4:N5"/>
-    <mergeCell ref="Q4:Q5"/>
-    <mergeCell ref="R4:R5"/>
-    <mergeCell ref="A1:AB1"/>
-    <mergeCell ref="C2:F2"/>
-    <mergeCell ref="U2:Y2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="O3:V3"/>
-    <mergeCell ref="W3:AF3"/>
-    <mergeCell ref="A3:A6"/>
-    <mergeCell ref="S4:S5"/>
-    <mergeCell ref="T4:T5"/>
-    <mergeCell ref="U4:U5"/>
-    <mergeCell ref="V4:V5"/>
-    <mergeCell ref="Y4:Y5"/>
-    <mergeCell ref="Z4:Z5"/>
-    <mergeCell ref="AA4:AA5"/>
-    <mergeCell ref="AB4:AB5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <conditionalFormatting sqref="B11:B34">
-    <cfRule type="cellIs" dxfId="87" priority="94" operator="lessThan">
+    <cfRule type="cellIs" dxfId="175" priority="94" operator="lessThan">
       <formula>B$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="86" priority="93" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="174" priority="93" operator="greaterThan">
       <formula>B$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C11:C34">
-    <cfRule type="cellIs" dxfId="85" priority="90" operator="lessThan">
+    <cfRule type="cellIs" dxfId="173" priority="90" operator="lessThan">
       <formula>C$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="84" priority="89" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="172" priority="89" operator="greaterThan">
       <formula>C$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D11:D34">
-    <cfRule type="cellIs" dxfId="83" priority="88" operator="lessThan">
+    <cfRule type="cellIs" dxfId="171" priority="88" operator="lessThan">
       <formula>D$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="82" priority="87" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="170" priority="87" operator="greaterThan">
       <formula>D$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J34">
-    <cfRule type="cellIs" dxfId="81" priority="80" operator="lessThan">
+    <cfRule type="cellIs" dxfId="169" priority="80" operator="lessThan">
       <formula>J$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="80" priority="79" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="168" priority="79" operator="greaterThan">
       <formula>J$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K11:K34">
-    <cfRule type="cellIs" dxfId="79" priority="78" operator="lessThan">
+    <cfRule type="cellIs" dxfId="167" priority="78" operator="lessThan">
       <formula>K$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="78" priority="77" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="166" priority="77" operator="greaterThan">
       <formula>K$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L11:L34">
-    <cfRule type="cellIs" dxfId="77" priority="76" operator="lessThan">
+    <cfRule type="cellIs" dxfId="165" priority="76" operator="lessThan">
       <formula>L$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="76" priority="75" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="164" priority="75" operator="greaterThan">
       <formula>L$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="M11:M34">
-    <cfRule type="cellIs" dxfId="75" priority="74" operator="lessThan">
+    <cfRule type="cellIs" dxfId="163" priority="74" operator="lessThan">
       <formula>M$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="74" priority="73" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="162" priority="73" operator="greaterThan">
       <formula>M$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="N11:N34">
-    <cfRule type="cellIs" dxfId="73" priority="72" operator="lessThan">
+    <cfRule type="cellIs" dxfId="161" priority="72" operator="lessThan">
       <formula>N$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="72" priority="71" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="160" priority="71" operator="greaterThan">
       <formula>N$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="O11:O34">
-    <cfRule type="cellIs" dxfId="71" priority="42" operator="lessThan">
+    <cfRule type="cellIs" dxfId="159" priority="42" operator="lessThan">
       <formula>O$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="70" priority="41" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="158" priority="41" operator="greaterThan">
       <formula>O$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="P11:P34">
-    <cfRule type="cellIs" dxfId="69" priority="40" operator="lessThan">
+    <cfRule type="cellIs" dxfId="157" priority="40" operator="lessThan">
       <formula>P$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="68" priority="39" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="156" priority="39" operator="greaterThan">
       <formula>P$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Q11:Q35">
-    <cfRule type="cellIs" dxfId="67" priority="70" operator="lessThan">
+    <cfRule type="cellIs" dxfId="155" priority="70" operator="lessThan">
       <formula>Q$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="66" priority="69" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="154" priority="69" operator="greaterThan">
       <formula>Q$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="R11:R34">
-    <cfRule type="cellIs" dxfId="65" priority="68" operator="lessThan">
+    <cfRule type="cellIs" dxfId="153" priority="68" operator="lessThan">
       <formula>R$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="64" priority="67" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="152" priority="67" operator="greaterThan">
       <formula>R$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="S11:S34">
-    <cfRule type="cellIs" dxfId="63" priority="66" operator="lessThan">
+    <cfRule type="cellIs" dxfId="151" priority="66" operator="lessThan">
       <formula>S$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="62" priority="65" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="150" priority="65" operator="greaterThan">
       <formula>S$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="T11:T34">
-    <cfRule type="cellIs" dxfId="61" priority="64" operator="lessThan">
+    <cfRule type="cellIs" dxfId="149" priority="64" operator="lessThan">
       <formula>T$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="60" priority="63" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="148" priority="63" operator="greaterThan">
       <formula>T$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="U11:U34">
-    <cfRule type="cellIs" dxfId="59" priority="62" operator="lessThan">
+    <cfRule type="cellIs" dxfId="147" priority="62" operator="lessThan">
       <formula>U$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="58" priority="61" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="146" priority="61" operator="greaterThan">
       <formula>U$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="V11:V34">
-    <cfRule type="cellIs" dxfId="57" priority="60" operator="lessThan">
+    <cfRule type="cellIs" dxfId="145" priority="60" operator="lessThan">
       <formula>V$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="59" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="144" priority="59" operator="greaterThan">
       <formula>V$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="W11:W34">
-    <cfRule type="cellIs" dxfId="55" priority="38" operator="lessThan">
+    <cfRule type="cellIs" dxfId="143" priority="38" operator="lessThan">
       <formula>W$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="54" priority="37" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="142" priority="37" operator="greaterThan">
       <formula>W$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="X11:X34">
-    <cfRule type="cellIs" dxfId="53" priority="36" operator="lessThan">
+    <cfRule type="cellIs" dxfId="141" priority="36" operator="lessThan">
       <formula>X$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="52" priority="35" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="140" priority="35" operator="greaterThan">
       <formula>X$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Y11:Y35">
-    <cfRule type="cellIs" dxfId="51" priority="58" operator="lessThan">
+    <cfRule type="cellIs" dxfId="139" priority="58" operator="lessThan">
       <formula>Y$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="57" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="138" priority="57" operator="greaterThan">
       <formula>Y$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="Z11:Z34">
-    <cfRule type="cellIs" dxfId="49" priority="56" operator="lessThan">
+    <cfRule type="cellIs" dxfId="137" priority="56" operator="lessThan">
       <formula>Z$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="48" priority="55" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="136" priority="55" operator="greaterThan">
       <formula>Z$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AA11:AA34">
-    <cfRule type="cellIs" dxfId="47" priority="54" operator="lessThan">
+    <cfRule type="cellIs" dxfId="135" priority="54" operator="lessThan">
       <formula>AA$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="53" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="134" priority="53" operator="greaterThan">
       <formula>AA$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AB11:AB34">
-    <cfRule type="cellIs" dxfId="45" priority="52" operator="lessThan">
+    <cfRule type="cellIs" dxfId="133" priority="52" operator="lessThan">
       <formula>AB$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="51" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="132" priority="51" operator="greaterThan">
       <formula>AB$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AC11:AC34">
-    <cfRule type="cellIs" dxfId="43" priority="34" operator="lessThan">
+    <cfRule type="cellIs" dxfId="131" priority="34" operator="lessThan">
       <formula>AC$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="42" priority="33" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="130" priority="33" operator="greaterThan">
       <formula>AC$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AD11:AD34">
-    <cfRule type="cellIs" dxfId="41" priority="50" operator="lessThan">
+    <cfRule type="cellIs" dxfId="129" priority="50" operator="lessThan">
       <formula>AD$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="49" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="128" priority="49" operator="greaterThan">
       <formula>AD$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AE11:AE34">
-    <cfRule type="cellIs" dxfId="39" priority="48" operator="lessThan">
+    <cfRule type="cellIs" dxfId="127" priority="48" operator="lessThan">
       <formula>AE$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="47" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="126" priority="47" operator="greaterThan">
       <formula>AE$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AF11:AF34">
-    <cfRule type="cellIs" dxfId="37" priority="46" operator="lessThan">
+    <cfRule type="cellIs" dxfId="125" priority="46" operator="lessThan">
       <formula>AF$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="36" priority="45" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="124" priority="45" operator="greaterThan">
       <formula>AF$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG11:AG34">
-    <cfRule type="cellIs" dxfId="35" priority="44" operator="lessThan">
+    <cfRule type="cellIs" dxfId="123" priority="44" operator="lessThan">
       <formula>AG$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="43" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="122" priority="43" operator="greaterThan">
       <formula>AG$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AH11:AH34">
-    <cfRule type="cellIs" dxfId="33" priority="32" operator="lessThan">
+    <cfRule type="cellIs" dxfId="121" priority="32" operator="lessThan">
       <formula>AH$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="31" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="120" priority="31" operator="greaterThan">
       <formula>AH$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AI11:AI34">
-    <cfRule type="cellIs" dxfId="31" priority="30" operator="lessThan">
+    <cfRule type="cellIs" dxfId="119" priority="30" operator="lessThan">
       <formula>AI$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="29" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="118" priority="29" operator="greaterThan">
       <formula>AI$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AJ11:AJ34">
-    <cfRule type="cellIs" dxfId="29" priority="28" operator="lessThan">
+    <cfRule type="cellIs" dxfId="117" priority="28" operator="lessThan">
       <formula>AJ$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="28" priority="27" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="116" priority="27" operator="greaterThan">
       <formula>AJ$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AK11:AK34">
-    <cfRule type="cellIs" dxfId="27" priority="26" operator="lessThan">
+    <cfRule type="cellIs" dxfId="115" priority="26" operator="lessThan">
       <formula>AK$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="25" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="114" priority="25" operator="greaterThan">
       <formula>AK$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AL11:AL34">
-    <cfRule type="cellIs" dxfId="25" priority="24" operator="lessThan">
+    <cfRule type="cellIs" dxfId="113" priority="24" operator="lessThan">
       <formula>AL$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="23" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="112" priority="23" operator="greaterThan">
       <formula>AL$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AM11:AM34">
-    <cfRule type="cellIs" dxfId="23" priority="22" operator="lessThan">
+    <cfRule type="cellIs" dxfId="111" priority="22" operator="lessThan">
       <formula>AM$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="21" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="110" priority="21" operator="greaterThan">
       <formula>AM$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AN11:AN34">
-    <cfRule type="cellIs" dxfId="21" priority="20" operator="lessThan">
+    <cfRule type="cellIs" dxfId="109" priority="20" operator="lessThan">
       <formula>AN$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="19" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="108" priority="19" operator="greaterThan">
       <formula>AN$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AO11:AO34">
-    <cfRule type="cellIs" dxfId="19" priority="18" operator="lessThan">
+    <cfRule type="cellIs" dxfId="107" priority="18" operator="lessThan">
       <formula>AO$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="17" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="106" priority="17" operator="greaterThan">
       <formula>AO$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AP11:AP34">
-    <cfRule type="cellIs" dxfId="17" priority="14" operator="lessThan">
+    <cfRule type="cellIs" dxfId="105" priority="14" operator="lessThan">
       <formula>AP$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="16" priority="13" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="104" priority="13" operator="greaterThan">
       <formula>AP$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AQ11:AQ34">
-    <cfRule type="cellIs" dxfId="15" priority="12" operator="lessThan">
+    <cfRule type="cellIs" dxfId="103" priority="12" operator="lessThan">
       <formula>AQ$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="11" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="102" priority="11" operator="greaterThan">
       <formula>AQ$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AR11:AR34">
-    <cfRule type="cellIs" dxfId="13" priority="10" operator="lessThan">
+    <cfRule type="cellIs" dxfId="101" priority="10" operator="lessThan">
       <formula>AR$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="100" priority="9" operator="greaterThan">
       <formula>AR$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AS11:AS34">
-    <cfRule type="cellIs" dxfId="11" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="99" priority="8" operator="lessThan">
       <formula>AS$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="7" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="98" priority="7" operator="greaterThan">
       <formula>AS$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AT11:AT34">
-    <cfRule type="cellIs" dxfId="9" priority="6" operator="lessThan">
+    <cfRule type="cellIs" dxfId="97" priority="6" operator="lessThan">
       <formula>AT$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="5" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="96" priority="5" operator="greaterThan">
       <formula>AT$8+0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E11:F34">
-    <cfRule type="cellIs" dxfId="7" priority="92" operator="lessThan">
+    <cfRule type="cellIs" dxfId="95" priority="92" operator="lessThan">
       <formula>E$9</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="91" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="94" priority="91" operator="greaterThan">
       <formula>E$8</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11:I35">
-    <cfRule type="cellIs" dxfId="5" priority="86" operator="lessThan">
+    <cfRule type="cellIs" dxfId="93" priority="86" operator="lessThan">
       <formula>G$9+0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="85" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="92" priority="85" operator="greaterThan">
       <formula>G$8+0</formula>
     </cfRule>
   </conditionalFormatting>
@@ -8316,8 +8771,11 @@
           <x14:cfRule type="expression" priority="4" id="{49FDFDBA-D4F6-4911-A0D2-98C82FD1A138}">
             <xm:f>_zhileng_day_hour!$AT$2=0</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -8327,8 +8785,11 @@
           <x14:cfRule type="expression" priority="3" id="{0D863F18-1A24-4F10-9C98-8592C0301893}">
             <xm:f>_zhileng_day_hour!$AU$2=0</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -8338,8 +8799,11 @@
           <x14:cfRule type="expression" priority="2" id="{0C0893BF-7319-47DB-8877-C9E9C2A1E7AF}">
             <xm:f>_zhileng_day_hour!$AV$2=0</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -8349,8 +8813,11 @@
           <x14:cfRule type="expression" priority="1" id="{6D7F26CB-8290-440B-B59D-CC23935FF8B4}">
             <xm:f>_zhileng_day_hour!$AW$2=0</xm:f>
             <x14:dxf>
+              <font>
+                <strike/>
+              </font>
               <fill>
-                <patternFill patternType="darkDown"/>
+                <patternFill patternType="solid"/>
               </fill>
             </x14:dxf>
           </x14:cfRule>
@@ -8367,158 +8834,158 @@
   <dimension ref="A1:AW1"/>
   <sheetViews>
     <sheetView topLeftCell="AH1" workbookViewId="0">
-      <selection activeCell="AT1" sqref="AT1:AW1"/>
+      <selection activeCell="AT2" sqref="AT2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:49" ht="75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>102</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>108</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>109</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>114</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>115</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>116</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>119</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="W1" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="X1" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>122</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="Z1" s="1" t="s">
         <v>123</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="AA1" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="AB1" s="1" t="s">
         <v>125</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="AC1" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AD1" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AE1" s="1" t="s">
         <v>128</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AF1" s="1" t="s">
         <v>129</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AH1" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AI1" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AJ1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AK1" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AL1" s="4" t="s">
         <v>134</v>
       </c>
-      <c r="AI1" s="3" t="s">
+      <c r="AM1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AN1" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AP1" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="AQ1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="AR1" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="AS1" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT1" s="41" t="s">
+        <v>149</v>
+      </c>
+      <c r="AU1" s="41" t="s">
         <v>150</v>
       </c>
-      <c r="AK1" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="AL1" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="AM1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AN1" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="AO1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AP1" s="4" t="s">
-        <v>139</v>
-      </c>
-      <c r="AQ1" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="AR1" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="AT1" s="68" t="s">
+      <c r="AV1" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="AW1" s="41" t="s">
         <v>152</v>
-      </c>
-      <c r="AU1" s="68" t="s">
-        <v>153</v>
-      </c>
-      <c r="AV1" s="68" t="s">
-        <v>154</v>
-      </c>
-      <c r="AW1" s="68" t="s">
-        <v>155</v>
       </c>
     </row>
   </sheetData>
@@ -8558,7 +9025,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B1">
         <v>12</v>

--- a/excel/finished/焦化12/CK12-化产-制冷循环水报表（日）.xlsx
+++ b/excel/finished/焦化12/CK12-化产-制冷循环水报表（日）.xlsx
@@ -693,13 +693,13 @@
     <t>中班记事：</t>
   </si>
   <si>
-    <t xml:space="preserve"> 交班：                                                                接班：</t>
-  </si>
-  <si>
-    <t xml:space="preserve">交班：                                              接班：</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 交班：                              接班：</t>
+    <t xml:space="preserve"> 交班：                                                             </t>
+  </si>
+  <si>
+    <t xml:space="preserve">交班：                                              </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 交班：                            </t>
   </si>
   <si>
     <t/>
@@ -2472,6 +2472,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="70">
+      <pane state="frozen" topLeftCell="B12" xSplit="1" ySplit="11"/>
       <selection activeCell="AH18" activeCellId="0" sqref="AH18"/>
     </sheetView>
   </sheetViews>
